--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_23_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19867.85216205211</v>
+        <v>-31761.18470048532</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20648055.99718736</v>
+        <v>20645364.32698148</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1627497.655025697</v>
+        <v>1631136.466068575</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.758581472967848</v>
+        <v>5.415985216415359</v>
       </c>
       <c r="C11" t="n">
-        <v>8.758581472967848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.235694159031665</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.758581472967848</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.71455856139008</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.247257548719597</v>
       </c>
       <c r="J12" t="n">
-        <v>8.758581472967848</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.758581472967848</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1606,20 +1606,20 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>5.415985216415359</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.67819014434952</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W14" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.24725754871959</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>12.56209233042347</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.247257548719598</v>
       </c>
       <c r="X15" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.67819014434952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22.83222355475863</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>22.83222355475854</v>
       </c>
       <c r="W17" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.71162596294116</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.63311888477794</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.409621707446611</v>
+        <v>8.409621707446632</v>
       </c>
       <c r="R18" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>14.42260184731191</v>
       </c>
     </row>
     <row r="19">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.92214300040712</v>
+        <v>22.83222355475854</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>22.83222355475859</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
     </row>
     <row r="21">
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.42260184731198</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="H21" t="n">
-        <v>25.92214300040712</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.409621707446611</v>
+        <v>8.40962170744664</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>14.42260184731191</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.579696329610414</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>23.4761150405953</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="W23" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>33.05581137020573</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2441,28 +2441,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R24" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="U24" t="n">
-        <v>36.33447707511633</v>
+        <v>30.52566786491422</v>
       </c>
       <c r="V24" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23.4761150405953</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.579696329610414</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>33.05581137020573</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>27.2470021600035</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.808809210202192</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>30.52566786491422</v>
       </c>
       <c r="V27" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="W27" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>37.52930446208643</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>13.38542393779526</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F29" t="n">
-        <v>37.52930446208643</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G29" t="n">
-        <v>37.52930446208643</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.05581137020571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F30" t="n">
-        <v>27.24700216000351</v>
+        <v>27.24700216000353</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="H30" t="n">
-        <v>37.52930446208643</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.808809210202192</v>
+        <v>5.808809210202185</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>37.52930446208643</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>37.52930446208643</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G32" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.579696329610428</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>22.96512026740566</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>23.47611504059525</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.70815661144293</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.81751125347121</v>
       </c>
       <c r="T33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="W33" t="n">
-        <v>19.34765475876274</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="X33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13.38542393779525</v>
       </c>
       <c r="G35" t="n">
-        <v>23.47611504059526</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="H35" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.579696329610428</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>37.52930446208642</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.24700216000348</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>33.05581137020571</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="G38" t="n">
-        <v>22.96512026740561</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.09069110280005</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>33.05581137020571</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>33.05581137020571</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.70815661144293</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>19.34765475876273</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>37.52930446208637</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G41" t="n">
-        <v>37.52930446208639</v>
+        <v>23.4761150405953</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>33.05581137020567</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>13.53884554856058</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G42" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="H42" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>33.05581137020568</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>13.38542393779528</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>26.13969589939483</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>45.40562735059413</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>45.40562735059413</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="G44" t="n">
-        <v>45.40562735059413</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.530866342333169</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.322714328675303</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>33.05581137020571</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>45.40562735059413</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>45.40562735059413</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.02646010756756</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.96681646283572</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>45.40562735059413</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.468277882965461</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.86662149965512</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="C11" t="n">
-        <v>9.019569506758302</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7006865178374279</v>
+        <v>7.670389724712637</v>
       </c>
       <c r="M11" t="n">
-        <v>9.371682176075597</v>
+        <v>23.19179796761867</v>
       </c>
       <c r="N11" t="n">
-        <v>18.04267783431376</v>
+        <v>38.7132062105247</v>
       </c>
       <c r="O11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="P11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="R11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="S11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="T11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="U11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="V11" t="n">
-        <v>26.71367349255193</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="W11" t="n">
-        <v>26.71367349255193</v>
+        <v>38.39805875206758</v>
       </c>
       <c r="X11" t="n">
-        <v>26.71367349255193</v>
+        <v>22.56150305070442</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.71367349255193</v>
+        <v>22.56150305070442</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.34022190607776</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="C12" t="n">
-        <v>9.547738510734243</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="D12" t="n">
-        <v>9.547738510734243</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="E12" t="n">
-        <v>9.547738510734243</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="F12" t="n">
-        <v>9.547738510734243</v>
+        <v>2.514111321365737</v>
       </c>
       <c r="G12" t="n">
-        <v>9.547738510734243</v>
+        <v>2.514111321365737</v>
       </c>
       <c r="H12" t="n">
-        <v>9.547738510734243</v>
+        <v>2.514111321365737</v>
       </c>
       <c r="I12" t="n">
-        <v>9.547738510734243</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="L12" t="n">
-        <v>9.371682176075597</v>
+        <v>16.775663454454</v>
       </c>
       <c r="M12" t="n">
-        <v>18.04267783431376</v>
+        <v>32.29707169736003</v>
       </c>
       <c r="N12" t="n">
-        <v>26.71367349255193</v>
+        <v>47.81847994026607</v>
       </c>
       <c r="O12" t="n">
-        <v>35.03432589187139</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="P12" t="n">
-        <v>35.03432589187139</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.18727389897457</v>
+        <v>50.02377842545522</v>
       </c>
       <c r="R12" t="n">
-        <v>26.18727389897457</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="S12" t="n">
-        <v>26.18727389897457</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="T12" t="n">
-        <v>26.18727389897457</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="U12" t="n">
-        <v>26.18727389897457</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="V12" t="n">
-        <v>26.18727389897457</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="W12" t="n">
-        <v>26.18727389897457</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="X12" t="n">
-        <v>26.18727389897457</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="Y12" t="n">
-        <v>26.18727389897457</v>
+        <v>18.3506670227289</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7006865178374279</v>
+        <v>1.254255211547962</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.92736661427427</v>
+        <v>6.724947349341255</v>
       </c>
       <c r="C14" t="n">
-        <v>17.09081091291112</v>
+        <v>6.724947349341255</v>
       </c>
       <c r="D14" t="n">
-        <v>17.09081091291112</v>
+        <v>6.724947349341255</v>
       </c>
       <c r="E14" t="n">
-        <v>17.09081091291112</v>
+        <v>6.724947349341255</v>
       </c>
       <c r="F14" t="n">
-        <v>17.09081091291112</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="G14" t="n">
-        <v>17.09081091291112</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="H14" t="n">
-        <v>17.09081091291112</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="I14" t="n">
-        <v>17.09081091291112</v>
+        <v>1.254255211547962</v>
       </c>
       <c r="J14" t="n">
         <v>1.254255211547962</v>
@@ -5284,46 +5284,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L14" t="n">
-        <v>7.670389724712636</v>
+        <v>7.670389724712637</v>
       </c>
       <c r="M14" t="n">
-        <v>23.19179796761866</v>
+        <v>23.19179796761867</v>
       </c>
       <c r="N14" t="n">
-        <v>38.71320621052469</v>
+        <v>38.7132062105247</v>
       </c>
       <c r="O14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="P14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="R14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="S14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="T14" t="n">
-        <v>54.23461445343072</v>
+        <v>54.23461445343074</v>
       </c>
       <c r="U14" t="n">
-        <v>54.23461445343072</v>
+        <v>38.39805875206758</v>
       </c>
       <c r="V14" t="n">
-        <v>54.23461445343072</v>
+        <v>22.56150305070442</v>
       </c>
       <c r="W14" t="n">
-        <v>38.39805875206756</v>
+        <v>22.56150305070442</v>
       </c>
       <c r="X14" t="n">
-        <v>38.39805875206756</v>
+        <v>6.724947349341255</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.39805875206756</v>
+        <v>6.724947349341255</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>17.09081091291112</v>
       </c>
       <c r="D15" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="E15" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="F15" t="n">
-        <v>1.254255211547962</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="G15" t="n">
         <v>1.254255211547962</v>
@@ -5363,46 +5363,46 @@
         <v>1.254255211547962</v>
       </c>
       <c r="L15" t="n">
-        <v>16.77566345445399</v>
+        <v>16.775663454454</v>
       </c>
       <c r="M15" t="n">
-        <v>32.29707169736001</v>
+        <v>32.29707169736003</v>
       </c>
       <c r="N15" t="n">
-        <v>35.55169430997687</v>
+        <v>47.81847994026607</v>
       </c>
       <c r="O15" t="n">
-        <v>51.07310255288289</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="P15" t="n">
-        <v>62.71276057739809</v>
+        <v>62.71276057739811</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.02377842545519</v>
+        <v>50.02377842545522</v>
       </c>
       <c r="R15" t="n">
-        <v>50.02377842545519</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="S15" t="n">
-        <v>50.02377842545519</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="T15" t="n">
-        <v>50.02377842545519</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="U15" t="n">
-        <v>50.02377842545519</v>
+        <v>34.18722272409206</v>
       </c>
       <c r="V15" t="n">
-        <v>50.02377842545519</v>
+        <v>18.3506670227289</v>
       </c>
       <c r="W15" t="n">
-        <v>50.02377842545519</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="X15" t="n">
-        <v>34.18722272409204</v>
+        <v>17.09081091291112</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.35066702272889</v>
+        <v>17.09081091291112</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.25775426872663</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="C17" t="n">
-        <v>2.073771440032569</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="D17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="E17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="F17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="G17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J17" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K17" t="n">
-        <v>2.855270530975182</v>
+        <v>2.855270530975147</v>
       </c>
       <c r="L17" t="n">
-        <v>18.77000281063159</v>
+        <v>18.77000281063152</v>
       </c>
       <c r="M17" t="n">
-        <v>44.43292438103464</v>
+        <v>44.43292438103453</v>
       </c>
       <c r="N17" t="n">
-        <v>70.09584595143768</v>
+        <v>70.09584595143754</v>
       </c>
       <c r="O17" t="n">
-        <v>95.75876752184072</v>
+        <v>95.75876752184057</v>
       </c>
       <c r="P17" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="Q17" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="R17" t="n">
-        <v>80.62571992611474</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="S17" t="n">
-        <v>80.62571992611474</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="T17" t="n">
-        <v>80.62571992611474</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="U17" t="n">
-        <v>80.62571992611474</v>
+        <v>77.50458917293429</v>
       </c>
       <c r="V17" t="n">
-        <v>80.62571992611474</v>
+        <v>54.44173709742061</v>
       </c>
       <c r="W17" t="n">
-        <v>54.44173709742068</v>
+        <v>54.44173709742061</v>
       </c>
       <c r="X17" t="n">
-        <v>54.44173709742068</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="Y17" t="n">
-        <v>54.44173709742068</v>
+        <v>28.25775426872659</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="C18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="D18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="E18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="F18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="G18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H18" t="n">
-        <v>42.82603896298116</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I18" t="n">
-        <v>17.86480061657594</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J18" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K18" t="n">
-        <v>7.274180174807082</v>
+        <v>7.274180174807057</v>
       </c>
       <c r="L18" t="n">
-        <v>32.93710174521013</v>
+        <v>32.93710174521006</v>
       </c>
       <c r="M18" t="n">
-        <v>58.60002331561317</v>
+        <v>58.60002331561307</v>
       </c>
       <c r="N18" t="n">
-        <v>84.26294488601621</v>
+        <v>84.26294488601607</v>
       </c>
       <c r="O18" t="n">
-        <v>85.89916262598167</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="P18" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.19400462036927</v>
+        <v>95.19400462036909</v>
       </c>
       <c r="R18" t="n">
-        <v>69.01002179167521</v>
+        <v>69.01002179167506</v>
       </c>
       <c r="S18" t="n">
-        <v>69.01002179167521</v>
+        <v>42.82603896298104</v>
       </c>
       <c r="T18" t="n">
-        <v>69.01002179167521</v>
+        <v>42.82603896298104</v>
       </c>
       <c r="U18" t="n">
-        <v>69.01002179167521</v>
+        <v>42.82603896298104</v>
       </c>
       <c r="V18" t="n">
-        <v>69.01002179167521</v>
+        <v>16.64205613428702</v>
       </c>
       <c r="W18" t="n">
-        <v>69.01002179167521</v>
+        <v>16.64205613428702</v>
       </c>
       <c r="X18" t="n">
-        <v>69.01002179167521</v>
+        <v>16.64205613428702</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.01002179167521</v>
+        <v>2.073771440032566</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="C19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="D19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="E19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="F19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="G19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="L19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="M19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="N19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="O19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="P19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="S19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="T19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="U19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="V19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="W19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="X19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.32060634424036</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="C20" t="n">
-        <v>51.32060634424036</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="D20" t="n">
-        <v>25.1366235155463</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="E20" t="n">
-        <v>25.1366235155463</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="F20" t="n">
-        <v>25.1366235155463</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="G20" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H20" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I20" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J20" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K20" t="n">
-        <v>2.855270530975172</v>
+        <v>2.855270530975147</v>
       </c>
       <c r="L20" t="n">
-        <v>18.77000281063154</v>
+        <v>18.77000281063155</v>
       </c>
       <c r="M20" t="n">
-        <v>44.43292438103458</v>
+        <v>44.43292438103455</v>
       </c>
       <c r="N20" t="n">
-        <v>70.09584595143762</v>
+        <v>70.09584595143757</v>
       </c>
       <c r="O20" t="n">
-        <v>95.75876752184067</v>
+        <v>95.75876752184058</v>
       </c>
       <c r="P20" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="Q20" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="R20" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="S20" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="T20" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="U20" t="n">
-        <v>77.50458917293442</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="V20" t="n">
-        <v>77.50458917293442</v>
+        <v>77.50458917293429</v>
       </c>
       <c r="W20" t="n">
-        <v>77.50458917293442</v>
+        <v>77.50458917293429</v>
       </c>
       <c r="X20" t="n">
-        <v>77.50458917293442</v>
+        <v>51.32060634424027</v>
       </c>
       <c r="Y20" t="n">
-        <v>77.50458917293442</v>
+        <v>25.13662351554625</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="C21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="D21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="E21" t="n">
-        <v>69.01002179167521</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="F21" t="n">
-        <v>42.82603896298116</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="G21" t="n">
-        <v>28.25775426872663</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H21" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I21" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J21" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K21" t="n">
-        <v>7.274180174807082</v>
+        <v>7.274180174807043</v>
       </c>
       <c r="L21" t="n">
-        <v>32.93710174521013</v>
+        <v>32.93710174521005</v>
       </c>
       <c r="M21" t="n">
-        <v>58.60002331561317</v>
+        <v>58.60002331561306</v>
       </c>
       <c r="N21" t="n">
-        <v>60.23624105557863</v>
+        <v>84.26294488601607</v>
       </c>
       <c r="O21" t="n">
-        <v>85.89916262598167</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="P21" t="n">
-        <v>103.6885720016285</v>
+        <v>103.6885720016283</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.19400462036927</v>
+        <v>95.19400462036909</v>
       </c>
       <c r="R21" t="n">
-        <v>95.19400462036927</v>
+        <v>69.01002179167506</v>
       </c>
       <c r="S21" t="n">
-        <v>95.19400462036927</v>
+        <v>69.01002179167506</v>
       </c>
       <c r="T21" t="n">
-        <v>95.19400462036927</v>
+        <v>69.01002179167506</v>
       </c>
       <c r="U21" t="n">
-        <v>95.19400462036927</v>
+        <v>54.44173709742061</v>
       </c>
       <c r="V21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="W21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="X21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
       <c r="Y21" t="n">
-        <v>95.19400462036927</v>
+        <v>28.25775426872659</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="C22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="D22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="E22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="F22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="G22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="H22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="I22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="J22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="K22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="L22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="M22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="N22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="O22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="P22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="R22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="S22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="T22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="U22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="V22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="W22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="X22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.073771440032569</v>
+        <v>2.073771440032566</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K23" t="n">
-        <v>8.579347327526888</v>
+        <v>8.5793473275269</v>
       </c>
       <c r="L23" t="n">
-        <v>30.44332621730855</v>
+        <v>30.44332621730848</v>
       </c>
       <c r="M23" t="n">
-        <v>67.59733763477409</v>
+        <v>67.59733763477405</v>
       </c>
       <c r="N23" t="n">
         <v>104.7513490522396</v>
       </c>
       <c r="O23" t="n">
-        <v>136.7661938505104</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P23" t="n">
         <v>150.1172178483457</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R23" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S23" t="n">
-        <v>116.7275093935924</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T23" t="n">
-        <v>116.7275093935924</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U23" t="n">
-        <v>78.81912104805059</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="V23" t="n">
-        <v>78.81912104805059</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="W23" t="n">
-        <v>40.91073270250875</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="X23" t="n">
-        <v>40.91073270250875</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K24" t="n">
-        <v>11.45991954906473</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L24" t="n">
-        <v>17.44797966023123</v>
+        <v>41.59280229228324</v>
       </c>
       <c r="M24" t="n">
-        <v>54.60199107769677</v>
+        <v>78.74681370974881</v>
       </c>
       <c r="N24" t="n">
-        <v>91.75600249516232</v>
+        <v>115.9008251272144</v>
       </c>
       <c r="O24" t="n">
-        <v>128.4760412668173</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P24" t="n">
         <v>150.1172178483457</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1172178483457</v>
+        <v>144.2497337976365</v>
       </c>
       <c r="R24" t="n">
-        <v>115.5206130431176</v>
+        <v>109.6531289924084</v>
       </c>
       <c r="S24" t="n">
-        <v>115.5206130431176</v>
+        <v>71.74474064686657</v>
       </c>
       <c r="T24" t="n">
-        <v>115.5206130431176</v>
+        <v>33.83635230132472</v>
       </c>
       <c r="U24" t="n">
-        <v>78.81912104805059</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="V24" t="n">
-        <v>40.91073270250875</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="W24" t="n">
-        <v>40.91073270250875</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="X24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="M25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="N25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="O25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="P25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="R25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="S25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="T25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="U25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="V25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="W25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="X25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.62398021826158</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C26" t="n">
-        <v>26.71559187271974</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D26" t="n">
-        <v>26.71559187271974</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E26" t="n">
-        <v>26.71559187271974</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F26" t="n">
-        <v>26.71559187271974</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G26" t="n">
-        <v>26.71559187271974</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H26" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I26" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J26" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K26" t="n">
-        <v>8.579347327526891</v>
+        <v>8.579347327526904</v>
       </c>
       <c r="L26" t="n">
-        <v>30.44332621730855</v>
+        <v>30.44332621730857</v>
       </c>
       <c r="M26" t="n">
-        <v>67.59733763477409</v>
+        <v>67.59733763477411</v>
       </c>
       <c r="N26" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O26" t="n">
-        <v>136.7661938505104</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P26" t="n">
         <v>150.1172178483457</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R26" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S26" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T26" t="n">
-        <v>140.4407569093453</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U26" t="n">
-        <v>102.5323685638034</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="V26" t="n">
-        <v>102.5323685638034</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="W26" t="n">
-        <v>64.62398021826158</v>
+        <v>74.30044115726204</v>
       </c>
       <c r="X26" t="n">
-        <v>64.62398021826158</v>
+        <v>36.39205281172018</v>
       </c>
       <c r="Y26" t="n">
-        <v>64.62398021826158</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.43295710655269</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="C27" t="n">
-        <v>30.52456876101085</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="D27" t="n">
-        <v>3.002344356966913</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="E27" t="n">
-        <v>3.002344356966913</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="F27" t="n">
-        <v>3.002344356966913</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="G27" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H27" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I27" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J27" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K27" t="n">
-        <v>11.45991954906473</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L27" t="n">
-        <v>41.5928022922832</v>
+        <v>41.59280229228322</v>
       </c>
       <c r="M27" t="n">
-        <v>76.24316765922515</v>
+        <v>76.24316765922521</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3971790766907</v>
+        <v>113.3971790766908</v>
       </c>
       <c r="O27" t="n">
         <v>150.1172178483457</v>
@@ -6326,31 +6326,31 @@
         <v>150.1172178483457</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.2497337976364</v>
+        <v>144.2497337976365</v>
       </c>
       <c r="R27" t="n">
-        <v>144.2497337976364</v>
+        <v>109.6531289924084</v>
       </c>
       <c r="S27" t="n">
-        <v>144.2497337976364</v>
+        <v>109.6531289924084</v>
       </c>
       <c r="T27" t="n">
-        <v>144.2497337976364</v>
+        <v>109.6531289924084</v>
       </c>
       <c r="U27" t="n">
-        <v>144.2497337976364</v>
+        <v>78.81912104805063</v>
       </c>
       <c r="V27" t="n">
-        <v>106.3413454520945</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="W27" t="n">
-        <v>68.43295710655269</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="X27" t="n">
-        <v>68.43295710655269</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.43295710655269</v>
+        <v>40.91073270250877</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="M28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="N28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="O28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="P28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="R28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="S28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="T28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="U28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="V28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="W28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="X28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.002344356966913</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.81912104805062</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="C29" t="n">
-        <v>78.81912104805062</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="D29" t="n">
-        <v>78.81912104805062</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="E29" t="n">
-        <v>78.81912104805062</v>
+        <v>51.10334997806434</v>
       </c>
       <c r="F29" t="n">
-        <v>40.91073270250877</v>
+        <v>13.1949616325225</v>
       </c>
       <c r="G29" t="n">
-        <v>3.002344356966915</v>
+        <v>13.1949616325225</v>
       </c>
       <c r="H29" t="n">
-        <v>3.002344356966915</v>
+        <v>13.1949616325225</v>
       </c>
       <c r="I29" t="n">
-        <v>3.002344356966915</v>
+        <v>13.1949616325225</v>
       </c>
       <c r="J29" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K29" t="n">
-        <v>8.579347327526918</v>
+        <v>8.579347327526818</v>
       </c>
       <c r="L29" t="n">
-        <v>30.44332621730857</v>
+        <v>30.44332621730848</v>
       </c>
       <c r="M29" t="n">
-        <v>67.59733763477414</v>
+        <v>67.59733763477405</v>
       </c>
       <c r="N29" t="n">
-        <v>104.7513490522397</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O29" t="n">
-        <v>136.7661938505105</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P29" t="n">
         <v>150.1172178483457</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.1172178483457</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="R29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="S29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="T29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="U29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="V29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="W29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="X29" t="n">
-        <v>150.1172178483457</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="Y29" t="n">
-        <v>116.7275093935925</v>
+        <v>102.5323685638034</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="C30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="D30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="E30" t="n">
         <v>68.43295710655272</v>
       </c>
       <c r="F30" t="n">
-        <v>40.91073270250877</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="G30" t="n">
-        <v>40.91073270250877</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H30" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I30" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J30" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K30" t="n">
-        <v>11.45991954906473</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L30" t="n">
-        <v>41.5928022922832</v>
+        <v>17.44797966023121</v>
       </c>
       <c r="M30" t="n">
-        <v>78.74681370974875</v>
+        <v>54.60199107769676</v>
       </c>
       <c r="N30" t="n">
-        <v>91.75600249516238</v>
+        <v>91.75600249516231</v>
       </c>
       <c r="O30" t="n">
         <v>128.4760412668173</v>
@@ -6572,22 +6572,22 @@
         <v>144.2497337976364</v>
       </c>
       <c r="T30" t="n">
+        <v>144.2497337976364</v>
+      </c>
+      <c r="U30" t="n">
         <v>106.3413454520946</v>
       </c>
-      <c r="U30" t="n">
-        <v>68.43295710655272</v>
-      </c>
       <c r="V30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="W30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="X30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.43295710655272</v>
+        <v>106.3413454520946</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.002344356966915</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="C32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="D32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="E32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="F32" t="n">
-        <v>40.91073270250872</v>
+        <v>51.10334997806434</v>
       </c>
       <c r="G32" t="n">
-        <v>3.002344356966911</v>
+        <v>51.10334997806434</v>
       </c>
       <c r="H32" t="n">
-        <v>3.002344356966911</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="I32" t="n">
-        <v>3.002344356966911</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="J32" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K32" t="n">
-        <v>8.579347327526918</v>
+        <v>8.579347327526891</v>
       </c>
       <c r="L32" t="n">
-        <v>30.44332621730854</v>
+        <v>30.44332621730855</v>
       </c>
       <c r="M32" t="n">
-        <v>67.59733763477402</v>
+        <v>67.59733763477409</v>
       </c>
       <c r="N32" t="n">
         <v>104.7513490522396</v>
@@ -6718,34 +6718,34 @@
         <v>136.7661938505104</v>
       </c>
       <c r="P32" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q32" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R32" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S32" t="n">
-        <v>140.4407569093451</v>
+        <v>126.920126669148</v>
       </c>
       <c r="T32" t="n">
-        <v>140.4407569093451</v>
+        <v>126.920126669148</v>
       </c>
       <c r="U32" t="n">
-        <v>116.7275093935924</v>
+        <v>126.920126669148</v>
       </c>
       <c r="V32" t="n">
-        <v>78.81912104805053</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="W32" t="n">
-        <v>78.81912104805053</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="X32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
       <c r="Y32" t="n">
-        <v>40.91073270250872</v>
+        <v>89.01173832360618</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="C33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="D33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="E33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="F33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="G33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="H33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="I33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="J33" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K33" t="n">
-        <v>11.45991954906471</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L33" t="n">
-        <v>41.59280229228317</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M33" t="n">
-        <v>78.74681370974869</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N33" t="n">
-        <v>91.75600249516228</v>
+        <v>115.9008251272143</v>
       </c>
       <c r="O33" t="n">
-        <v>128.4760412668172</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P33" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1172178483456</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="R33" t="n">
-        <v>150.1172178483456</v>
+        <v>109.6531289924083</v>
       </c>
       <c r="S33" t="n">
-        <v>150.1172178483456</v>
+        <v>92.66574388789192</v>
       </c>
       <c r="T33" t="n">
-        <v>112.2088295028038</v>
+        <v>92.66574388789192</v>
       </c>
       <c r="U33" t="n">
-        <v>112.2088295028038</v>
+        <v>92.66574388789192</v>
       </c>
       <c r="V33" t="n">
-        <v>112.2088295028038</v>
+        <v>54.75735554235008</v>
       </c>
       <c r="W33" t="n">
-        <v>92.66574388789189</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="X33" t="n">
-        <v>54.75735554235007</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.84896719680826</v>
+        <v>16.84896719680825</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.1172178483456</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="35">
@@ -6925,58 +6925,58 @@
         <v>64.62398021826155</v>
       </c>
       <c r="F35" t="n">
+        <v>51.10334997806433</v>
+      </c>
+      <c r="G35" t="n">
+        <v>13.1949616325225</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13.1949616325225</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13.1949616325225</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.002344356966912</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.579347327526879</v>
+      </c>
+      <c r="L35" t="n">
+        <v>30.44332621730851</v>
+      </c>
+      <c r="M35" t="n">
+        <v>67.59733763477405</v>
+      </c>
+      <c r="N35" t="n">
+        <v>104.7513490522396</v>
+      </c>
+      <c r="O35" t="n">
+        <v>136.7661938505104</v>
+      </c>
+      <c r="P35" t="n">
+        <v>150.1172178483456</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>140.4407569093452</v>
+      </c>
+      <c r="R35" t="n">
+        <v>102.5323685638034</v>
+      </c>
+      <c r="S35" t="n">
+        <v>102.5323685638034</v>
+      </c>
+      <c r="T35" t="n">
+        <v>102.5323685638034</v>
+      </c>
+      <c r="U35" t="n">
+        <v>102.5323685638034</v>
+      </c>
+      <c r="V35" t="n">
         <v>64.62398021826155</v>
       </c>
-      <c r="G35" t="n">
-        <v>40.91073270250876</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.002344356966914</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.002344356966914</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.002344356966914</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8.579347327526918</v>
-      </c>
-      <c r="L35" t="n">
-        <v>30.44332621730854</v>
-      </c>
-      <c r="M35" t="n">
-        <v>67.59733763477411</v>
-      </c>
-      <c r="N35" t="n">
-        <v>104.7513490522397</v>
-      </c>
-      <c r="O35" t="n">
-        <v>136.7661938505105</v>
-      </c>
-      <c r="P35" t="n">
-        <v>150.1172178483457</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>140.4407569093453</v>
-      </c>
-      <c r="R35" t="n">
-        <v>140.4407569093453</v>
-      </c>
-      <c r="S35" t="n">
-        <v>140.4407569093453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>140.4407569093453</v>
-      </c>
-      <c r="U35" t="n">
-        <v>140.4407569093453</v>
-      </c>
-      <c r="V35" t="n">
-        <v>102.5323685638034</v>
-      </c>
       <c r="W35" t="n">
-        <v>102.5323685638034</v>
+        <v>64.62398021826155</v>
       </c>
       <c r="X35" t="n">
         <v>64.62398021826155</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.002344356966914</v>
+        <v>78.81912104805056</v>
       </c>
       <c r="C36" t="n">
-        <v>3.002344356966914</v>
+        <v>78.81912104805056</v>
       </c>
       <c r="D36" t="n">
-        <v>3.002344356966914</v>
+        <v>40.91073270250874</v>
       </c>
       <c r="E36" t="n">
-        <v>3.002344356966914</v>
+        <v>40.91073270250874</v>
       </c>
       <c r="F36" t="n">
-        <v>3.002344356966914</v>
+        <v>40.91073270250874</v>
       </c>
       <c r="G36" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="H36" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="I36" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="J36" t="n">
-        <v>3.002344356966914</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="K36" t="n">
-        <v>11.45991954906471</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L36" t="n">
-        <v>41.59280229228317</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M36" t="n">
-        <v>78.74681370974872</v>
+        <v>78.74681370974874</v>
       </c>
       <c r="N36" t="n">
         <v>115.9008251272143</v>
       </c>
       <c r="O36" t="n">
-        <v>128.4760412668173</v>
+        <v>150.1172178483456</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1172178483457</v>
+        <v>150.1172178483456</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.1172178483457</v>
+        <v>144.2497337976363</v>
       </c>
       <c r="R36" t="n">
-        <v>150.1172178483457</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="S36" t="n">
-        <v>150.1172178483457</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="T36" t="n">
-        <v>150.1172178483457</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="U36" t="n">
         <v>116.7275093935924</v>
       </c>
       <c r="V36" t="n">
-        <v>78.8191210480506</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="W36" t="n">
-        <v>40.91073270250876</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="X36" t="n">
-        <v>3.002344356966914</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.002344356966914</v>
+        <v>116.7275093935924</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="C37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="D37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="E37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="F37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="G37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="H37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="I37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="J37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="K37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="L37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="M37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="N37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="O37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="P37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="Q37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="R37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="S37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="T37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="U37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="V37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="X37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.1172178483457</v>
+        <v>3.002344356966912</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>112.2088295028037</v>
+        <v>78.81912104805062</v>
       </c>
       <c r="C38" t="n">
-        <v>112.2088295028037</v>
+        <v>78.81912104805062</v>
       </c>
       <c r="D38" t="n">
-        <v>112.2088295028037</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="E38" t="n">
-        <v>112.2088295028037</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="F38" t="n">
-        <v>112.2088295028037</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G38" t="n">
-        <v>89.01173832360611</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H38" t="n">
-        <v>51.10334997806432</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I38" t="n">
-        <v>13.19496163252252</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J38" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K38" t="n">
-        <v>8.579347327526865</v>
+        <v>8.579347327526902</v>
       </c>
       <c r="L38" t="n">
-        <v>30.44332621730848</v>
+        <v>30.44332621730855</v>
       </c>
       <c r="M38" t="n">
-        <v>67.59733763477399</v>
+        <v>67.59733763477412</v>
       </c>
       <c r="N38" t="n">
-        <v>104.7513490522395</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O38" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P38" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R38" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S38" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T38" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U38" t="n">
-        <v>150.1172178483455</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="V38" t="n">
-        <v>150.1172178483455</v>
+        <v>116.7275093935925</v>
       </c>
       <c r="W38" t="n">
-        <v>150.1172178483455</v>
+        <v>78.81912104805062</v>
       </c>
       <c r="X38" t="n">
-        <v>150.1172178483455</v>
+        <v>78.81912104805062</v>
       </c>
       <c r="Y38" t="n">
-        <v>150.1172178483455</v>
+        <v>78.81912104805062</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.84896719680825</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="C39" t="n">
-        <v>16.84896719680825</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="D39" t="n">
-        <v>16.84896719680825</v>
+        <v>74.30044115726201</v>
       </c>
       <c r="E39" t="n">
-        <v>16.84896719680825</v>
+        <v>40.91073270250877</v>
       </c>
       <c r="F39" t="n">
-        <v>16.84896719680825</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G39" t="n">
-        <v>16.84896719680825</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H39" t="n">
-        <v>16.84896719680825</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I39" t="n">
-        <v>16.84896719680825</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J39" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K39" t="n">
-        <v>3.00234435696691</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L39" t="n">
-        <v>33.13522710018536</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M39" t="n">
-        <v>54.60199107769668</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N39" t="n">
-        <v>91.75600249516219</v>
+        <v>115.9008251272143</v>
       </c>
       <c r="O39" t="n">
-        <v>128.4760412668171</v>
+        <v>128.4760412668173</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R39" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S39" t="n">
-        <v>112.2088295028037</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T39" t="n">
-        <v>74.3004411572619</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U39" t="n">
-        <v>54.75735554235005</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="V39" t="n">
-        <v>54.75735554235005</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="W39" t="n">
-        <v>16.84896719680825</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="X39" t="n">
-        <v>16.84896719680825</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.84896719680825</v>
+        <v>112.2088295028039</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="M40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="N40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="O40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="P40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="R40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="S40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="T40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="U40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="V40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="W40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="X40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.00234435696691</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="C41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="D41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="E41" t="n">
-        <v>40.91073270250872</v>
+        <v>64.62398021826158</v>
       </c>
       <c r="F41" t="n">
-        <v>40.91073270250872</v>
+        <v>26.71559187271974</v>
       </c>
       <c r="G41" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H41" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I41" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J41" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K41" t="n">
-        <v>8.579347327526893</v>
+        <v>8.579347327526888</v>
       </c>
       <c r="L41" t="n">
-        <v>30.44332621730852</v>
+        <v>30.44332621730854</v>
       </c>
       <c r="M41" t="n">
-        <v>67.59733763477405</v>
+        <v>67.59733763477409</v>
       </c>
       <c r="N41" t="n">
         <v>104.7513490522396</v>
       </c>
       <c r="O41" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P41" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.1172178483456</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="R41" t="n">
-        <v>150.1172178483456</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="S41" t="n">
-        <v>112.2088295028038</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="T41" t="n">
-        <v>112.2088295028038</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="U41" t="n">
-        <v>74.30044115726193</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="V41" t="n">
-        <v>74.30044115726193</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="W41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="X41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.91073270250872</v>
+        <v>102.5323685638034</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="C42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="D42" t="n">
-        <v>78.81912104805053</v>
+        <v>106.3413454520945</v>
       </c>
       <c r="E42" t="n">
-        <v>78.81912104805053</v>
+        <v>92.66574388789192</v>
       </c>
       <c r="F42" t="n">
-        <v>78.81912104805053</v>
+        <v>54.75735554235008</v>
       </c>
       <c r="G42" t="n">
-        <v>40.91073270250872</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="H42" t="n">
-        <v>3.002344356966911</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="I42" t="n">
-        <v>3.002344356966911</v>
+        <v>16.84896719680825</v>
       </c>
       <c r="J42" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K42" t="n">
-        <v>11.45991954906471</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L42" t="n">
-        <v>41.59280229228317</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M42" t="n">
-        <v>78.74681370974869</v>
+        <v>76.24316765922515</v>
       </c>
       <c r="N42" t="n">
-        <v>91.75600249516228</v>
+        <v>113.3971790766907</v>
       </c>
       <c r="O42" t="n">
-        <v>128.4760412668172</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1172178483456</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1172178483456</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="R42" t="n">
-        <v>150.1172178483456</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="S42" t="n">
-        <v>150.1172178483456</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="T42" t="n">
-        <v>112.2088295028038</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="U42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="V42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="W42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="X42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.81912104805053</v>
+        <v>144.2497337976364</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175.2359292724015</v>
+        <v>126.9201266691481</v>
       </c>
       <c r="C44" t="n">
-        <v>175.2359292724015</v>
+        <v>126.9201266691481</v>
       </c>
       <c r="D44" t="n">
-        <v>148.8321960406895</v>
+        <v>126.9201266691481</v>
       </c>
       <c r="E44" t="n">
-        <v>102.9679259895843</v>
+        <v>126.9201266691481</v>
       </c>
       <c r="F44" t="n">
-        <v>57.10365593847915</v>
+        <v>89.01173832360621</v>
       </c>
       <c r="G44" t="n">
-        <v>11.23938588737396</v>
+        <v>51.10334997806436</v>
       </c>
       <c r="H44" t="n">
-        <v>11.23938588737396</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="I44" t="n">
-        <v>11.23938588737396</v>
+        <v>13.19496163252251</v>
       </c>
       <c r="J44" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K44" t="n">
-        <v>13.00760177093457</v>
+        <v>8.579347327526902</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58351986958235</v>
+        <v>30.44332621730855</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9804715503993</v>
+        <v>67.59733763477412</v>
       </c>
       <c r="N44" t="n">
-        <v>126.9320426274875</v>
+        <v>104.7513490522397</v>
       </c>
       <c r="O44" t="n">
-        <v>163.9777557138805</v>
+        <v>136.7661938505105</v>
       </c>
       <c r="P44" t="n">
-        <v>181.6225094023765</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="R44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="S44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="T44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="U44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="V44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="W44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="X44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
       <c r="Y44" t="n">
-        <v>175.2359292724015</v>
+        <v>140.4407569093453</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>121.6503439342655</v>
+        <v>74.30044115726201</v>
       </c>
       <c r="C45" t="n">
-        <v>121.6503439342655</v>
+        <v>36.39205281172016</v>
       </c>
       <c r="D45" t="n">
-        <v>121.6503439342655</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E45" t="n">
-        <v>121.6503439342655</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F45" t="n">
-        <v>121.6503439342655</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G45" t="n">
-        <v>75.78607388316036</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H45" t="n">
-        <v>29.92180383205517</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I45" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J45" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K45" t="n">
-        <v>14.66977561506495</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L45" t="n">
-        <v>48.27145091008543</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M45" t="n">
-        <v>71.4579730543601</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N45" t="n">
-        <v>116.4095441314483</v>
+        <v>91.75600249516238</v>
       </c>
       <c r="O45" t="n">
-        <v>156.9306452111045</v>
+        <v>128.4760412668173</v>
       </c>
       <c r="P45" t="n">
-        <v>181.6225094023765</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.6225094023765</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R45" t="n">
-        <v>181.6225094023765</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S45" t="n">
-        <v>167.5146139853707</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T45" t="n">
-        <v>121.6503439342655</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U45" t="n">
-        <v>121.6503439342655</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="V45" t="n">
-        <v>121.6503439342655</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="W45" t="n">
-        <v>121.6503439342655</v>
+        <v>112.2088295028039</v>
       </c>
       <c r="X45" t="n">
-        <v>121.6503439342655</v>
+        <v>74.30044115726201</v>
       </c>
       <c r="Y45" t="n">
-        <v>121.6503439342655</v>
+        <v>74.30044115726201</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="C46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="D46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="E46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="F46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="G46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="H46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="I46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="J46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="K46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="L46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="M46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="N46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="O46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="P46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="R46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="S46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="T46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="U46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="V46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="W46" t="n">
-        <v>5.115559160739915</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="X46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.63245018804753</v>
+        <v>3.002344356966915</v>
       </c>
     </row>
   </sheetData>
@@ -22570,13 +22570,13 @@
         <v>65.41342074217175</v>
       </c>
       <c r="J2" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K2" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L2" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M2" t="n">
         <v>1.857412192921856</v>
@@ -22585,10 +22585,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P2" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q2" t="n">
         <v>33.80255651301093</v>
@@ -22731,10 +22731,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K4" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L4" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M4" t="n">
         <v>19.6511016040668</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.3603863948767</v>
+        <v>400.7029826514292</v>
       </c>
       <c r="C11" t="n">
-        <v>397.2647633068947</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>392.1835964488384</v>
+        <v>384.7411004635205</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23272,19 +23272,19 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.035926107673</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6026864323592</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I11" t="n">
-        <v>62.16108501099309</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J11" t="n">
-        <v>21.96859360609994</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K11" t="n">
-        <v>12.16856048996159</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,31 +23299,31 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.638799155702131</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.69249438499536</v>
+        <v>20.2575401764107</v>
       </c>
       <c r="R11" t="n">
-        <v>49.30359039443185</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S11" t="n">
-        <v>120.140114281275</v>
+        <v>119.2042619908454</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3357027066129</v>
+        <v>217.1559246089122</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4414808104112</v>
+        <v>254.4381953169066</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>364.2445077118336</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>380.9587737083875</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.1414208362629</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>124.9405619771537</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -23348,22 +23348,22 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>92.19209087497093</v>
       </c>
       <c r="G12" t="n">
-        <v>105.5964678077673</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H12" t="n">
-        <v>66.91305776541161</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I12" t="n">
-        <v>29.16012334893206</v>
+        <v>27.15631602455007</v>
       </c>
       <c r="J12" t="n">
-        <v>12.02397249766216</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K12" t="n">
-        <v>3.548266635740447</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.608431197694912</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.89968796643499</v>
+        <v>21.85720245593554</v>
       </c>
       <c r="S12" t="n">
-        <v>100.8967116041881</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T12" t="n">
-        <v>156.443530669584</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3560038221742</v>
+        <v>179.6763680413106</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23430,49 +23430,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3064712780997</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H13" t="n">
-        <v>145.6982466777903</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I13" t="n">
-        <v>107.0203695312125</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J13" t="n">
-        <v>32.24404257016548</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K13" t="n">
-        <v>20.71677848520088</v>
+        <v>18.57647807777823</v>
       </c>
       <c r="L13" t="n">
-        <v>14.27615395477757</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M13" t="n">
-        <v>13.71926872048031</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N13" t="n">
-        <v>10.178612758311</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O13" t="n">
-        <v>17.711496350268</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9533239836675</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.63214636560794</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R13" t="n">
-        <v>72.21614595736835</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S13" t="n">
-        <v>179.7978117778089</v>
+        <v>179.4767667166956</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9935655763578</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9553614764855</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>400.7029826514292</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>390.345154635513</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>411.4041227094339</v>
       </c>
       <c r="G14" t="n">
         <v>403.9948574388665</v>
@@ -23518,7 +23518,7 @@
         <v>60.57778515682809</v>
       </c>
       <c r="J14" t="n">
-        <v>2.804751532629453</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K14" t="n">
         <v>6.944471810258847</v>
@@ -23551,16 +23551,16 @@
         <v>217.1559246089122</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4381953169066</v>
+        <v>238.7600051725571</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>330.6609889725346</v>
       </c>
       <c r="W14" t="n">
-        <v>364.2445077118336</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>380.9587737083875</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.6527447605112</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>100.049996058452</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -23588,7 +23588,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.5744941327544</v>
+        <v>89.8963039884049</v>
       </c>
       <c r="H15" t="n">
         <v>66.70083832515573</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.53539260028506</v>
+        <v>21.85720245593554</v>
       </c>
       <c r="S15" t="n">
         <v>100.4885602284008</v>
@@ -23633,16 +23633,16 @@
         <v>195.3545581856602</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>195.896221592547</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>209.8535790323149</v>
       </c>
       <c r="X15" t="n">
-        <v>158.8845318981466</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.1297498954588</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>380.1968248674374</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>380.1012017794554</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>374.497147607463</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23755,7 +23755,7 @@
         <v>58.23383048636398</v>
       </c>
       <c r="J17" t="n">
-        <v>13.32269985836012</v>
+        <v>13.32269985836014</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.69192873953679</v>
+        <v>13.69192873953681</v>
       </c>
       <c r="R17" t="n">
-        <v>20.07241989634313</v>
+        <v>42.90464345110178</v>
       </c>
       <c r="S17" t="n">
         <v>117.8188040554794</v>
@@ -23788,16 +23788,16 @@
         <v>216.8897768475489</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4333313943688</v>
+        <v>228.5111883939618</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>323.5069555621255</v>
       </c>
       <c r="W17" t="n">
-        <v>354.000554855776</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>370.7148208523299</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23828,13 +23828,13 @@
         <v>105.5419637829043</v>
       </c>
       <c r="H18" t="n">
-        <v>40.46452063014323</v>
+        <v>66.38666363055034</v>
       </c>
       <c r="I18" t="n">
-        <v>2.571933372066809</v>
+        <v>27.28355933500798</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.63311888477794</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.593514369708195</v>
+        <v>9.593514369708242</v>
       </c>
       <c r="S18" t="n">
-        <v>99.88432324763156</v>
+        <v>73.96218024722448</v>
       </c>
       <c r="T18" t="n">
         <v>156.2238412009475</v>
@@ -23870,7 +23870,7 @@
         <v>195.3524180310648</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>185.6522687364894</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -23879,7 +23879,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>143.3853381924964</v>
       </c>
     </row>
     <row r="19">
@@ -23913,31 +23913,31 @@
         <v>105.6462160001392</v>
       </c>
       <c r="J19" t="n">
-        <v>29.01345248214941</v>
+        <v>29.01345248214942</v>
       </c>
       <c r="K19" t="n">
-        <v>15.4079265725295</v>
+        <v>15.40792657252952</v>
       </c>
       <c r="L19" t="n">
-        <v>7.482651280299663</v>
+        <v>7.482651280299677</v>
       </c>
       <c r="M19" t="n">
-        <v>6.556472669604531</v>
+        <v>6.556472669604553</v>
       </c>
       <c r="N19" t="n">
-        <v>3.186131987888672</v>
+        <v>3.186131987888686</v>
       </c>
       <c r="O19" t="n">
-        <v>11.25280859297422</v>
+        <v>11.25280859297423</v>
       </c>
       <c r="P19" t="n">
-        <v>17.42680083451414</v>
+        <v>17.42680083451415</v>
       </c>
       <c r="Q19" t="n">
         <v>34.80586819912781</v>
       </c>
       <c r="R19" t="n">
-        <v>70.1615621107273</v>
+        <v>70.16156211072732</v>
       </c>
       <c r="S19" t="n">
         <v>179.0014839909082</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>380.1968248674374</v>
+        <v>383.286744313086</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>374.4971476074629</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,16 +23983,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1018348523859</v>
+        <v>403.9340584071444</v>
       </c>
       <c r="H20" t="n">
         <v>300.5594338443206</v>
       </c>
       <c r="I20" t="n">
-        <v>58.23383048636398</v>
+        <v>58.23383048636399</v>
       </c>
       <c r="J20" t="n">
-        <v>13.32269985836012</v>
+        <v>13.32269985836015</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.69192873953679</v>
+        <v>13.69192873953682</v>
       </c>
       <c r="R20" t="n">
-        <v>42.90464345110177</v>
+        <v>42.90464345110179</v>
       </c>
       <c r="S20" t="n">
         <v>117.8188040554794</v>
@@ -24025,19 +24025,19 @@
         <v>216.8897768475489</v>
       </c>
       <c r="U20" t="n">
-        <v>228.5111883939617</v>
+        <v>254.4333313943688</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>320.417036116477</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>370.7148208523299</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>371.0051633209837</v>
       </c>
     </row>
     <row r="21">
@@ -24056,22 +24056,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>93.36574484718817</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>81.94813801891334</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>91.11936193559229</v>
+        <v>79.6198207824972</v>
       </c>
       <c r="H21" t="n">
-        <v>40.46452063014323</v>
+        <v>66.38666363055034</v>
       </c>
       <c r="I21" t="n">
-        <v>27.28355933500797</v>
+        <v>27.28355933500798</v>
       </c>
       <c r="J21" t="n">
-        <v>15.63311888477794</v>
+        <v>15.63311888477795</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.51565737011531</v>
+        <v>9.593514369708249</v>
       </c>
       <c r="S21" t="n">
         <v>99.88432324763156</v>
@@ -24104,10 +24104,10 @@
         <v>156.2238412009475</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3524180310648</v>
+        <v>180.9298161837528</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>185.6522687364894</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -24150,31 +24150,31 @@
         <v>105.6462160001392</v>
       </c>
       <c r="J22" t="n">
-        <v>29.01345248214941</v>
+        <v>29.01345248214943</v>
       </c>
       <c r="K22" t="n">
-        <v>15.4079265725295</v>
+        <v>15.40792657252953</v>
       </c>
       <c r="L22" t="n">
-        <v>7.482651280299663</v>
+        <v>7.482651280299692</v>
       </c>
       <c r="M22" t="n">
-        <v>6.556472669604531</v>
+        <v>6.55647266960456</v>
       </c>
       <c r="N22" t="n">
-        <v>3.186131987888672</v>
+        <v>3.186131987888693</v>
       </c>
       <c r="O22" t="n">
-        <v>11.25280859297422</v>
+        <v>11.25280859297424</v>
       </c>
       <c r="P22" t="n">
-        <v>17.42680083451414</v>
+        <v>17.42680083451416</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.80586819912781</v>
+        <v>34.80586819912782</v>
       </c>
       <c r="R22" t="n">
-        <v>70.1615621107273</v>
+        <v>70.16156211072732</v>
       </c>
       <c r="S22" t="n">
         <v>179.0014839909082</v>
@@ -24226,10 +24226,10 @@
         <v>300.1694450707848</v>
       </c>
       <c r="I23" t="n">
-        <v>56.76574385712078</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J23" t="n">
-        <v>10.09069110280004</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R23" t="n">
-        <v>40.51258854612289</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S23" t="n">
-        <v>93.47493662362851</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T23" t="n">
         <v>216.7230808039846</v>
@@ -24265,16 +24265,16 @@
         <v>216.9009805168661</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>308.8098746547977</v>
       </c>
       <c r="W23" t="n">
         <v>342.3933933940967</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>363.5811524825313</v>
       </c>
       <c r="Y23" t="n">
-        <v>359.3980018593044</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24302,13 +24302,13 @@
         <v>105.5215890835718</v>
       </c>
       <c r="H24" t="n">
-        <v>66.18988692910271</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I24" t="n">
-        <v>26.58206201150025</v>
+        <v>26.58206201150024</v>
       </c>
       <c r="J24" t="n">
-        <v>13.70815661144292</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.808809210202192</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>99.50587214380286</v>
+        <v>61.97656768171642</v>
       </c>
       <c r="T24" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025167</v>
       </c>
       <c r="U24" t="n">
-        <v>159.0166005152029</v>
+        <v>164.825409725405</v>
       </c>
       <c r="V24" t="n">
-        <v>174.0451072748101</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24387,28 +24387,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J25" t="n">
-        <v>27.80579301341918</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K25" t="n">
         <v>13.42337108707594</v>
       </c>
       <c r="L25" t="n">
-        <v>4.943103517458695</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M25" t="n">
-        <v>3.878875624559477</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N25" t="n">
-        <v>0.572202215851128</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O25" t="n">
-        <v>8.838421371704108</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P25" t="n">
-        <v>15.36087546843635</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.37552856090302</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R25" t="n">
         <v>69.39351739781233</v>
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>368.4940403177761</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24460,13 +24460,13 @@
         <v>403.8959782144399</v>
       </c>
       <c r="H26" t="n">
-        <v>276.6933300301895</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I26" t="n">
-        <v>56.76574385712078</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J26" t="n">
-        <v>10.09069110280004</v>
+        <v>10.09069110280003</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.5796963296104</v>
       </c>
       <c r="R26" t="n">
-        <v>40.51258854612289</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S26" t="n">
         <v>116.9510516642238</v>
@@ -24508,10 +24508,10 @@
         <v>342.3933933940967</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>359.1076593906506</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>363.8714949511851</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>95.12581607645733</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>88.48118404279798</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -24536,7 +24536,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.5215890835718</v>
+        <v>67.9922846214854</v>
       </c>
       <c r="H27" t="n">
         <v>66.18988692910271</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.25063875717579</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>99.50587214380286</v>
@@ -24578,13 +24578,13 @@
         <v>156.1417168646031</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3510775903192</v>
+        <v>164.825409725405</v>
       </c>
       <c r="V27" t="n">
         <v>174.0451072748101</v>
       </c>
       <c r="W27" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -24630,19 +24630,19 @@
         <v>13.42337108707594</v>
       </c>
       <c r="L28" t="n">
-        <v>4.943103517458695</v>
+        <v>4.943103517458688</v>
       </c>
       <c r="M28" t="n">
-        <v>3.878875624559477</v>
+        <v>3.87887562455947</v>
       </c>
       <c r="N28" t="n">
-        <v>0.572202215851128</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O28" t="n">
-        <v>8.838421371704108</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P28" t="n">
-        <v>15.36087546843635</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q28" t="n">
         <v>33.37552856090302</v>
@@ -24679,31 +24679,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>368.5896634057581</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>387.0338666700748</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F29" t="n">
         <v>379.2908034637629</v>
       </c>
       <c r="G29" t="n">
-        <v>366.3666737523534</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H29" t="n">
         <v>300.1694450707848</v>
       </c>
       <c r="I29" t="n">
-        <v>56.76574385712078</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J29" t="n">
-        <v>10.09069110280004</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.579696329610414</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.51258854612289</v>
+        <v>2.98328408403647</v>
       </c>
       <c r="S29" t="n">
         <v>116.9510516642238</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>363.8714949511851</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24767,16 +24767,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>81.75858338550887</v>
       </c>
       <c r="F30" t="n">
         <v>80.62327885931694</v>
       </c>
       <c r="G30" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148541</v>
       </c>
       <c r="H30" t="n">
-        <v>28.66058246701628</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I30" t="n">
         <v>26.58206201150025</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.25063875717579</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S30" t="n">
         <v>99.50587214380286</v>
       </c>
       <c r="T30" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U30" t="n">
         <v>157.8217731282328</v>
@@ -24867,19 +24867,19 @@
         <v>13.42337108707594</v>
       </c>
       <c r="L31" t="n">
-        <v>4.943103517458695</v>
+        <v>4.943103517458688</v>
       </c>
       <c r="M31" t="n">
-        <v>3.878875624559477</v>
+        <v>3.87887562455947</v>
       </c>
       <c r="N31" t="n">
-        <v>0.572202215851128</v>
+        <v>0.5722022158511137</v>
       </c>
       <c r="O31" t="n">
-        <v>8.838421371704108</v>
+        <v>8.838421371704101</v>
       </c>
       <c r="P31" t="n">
-        <v>15.36087546843635</v>
+        <v>15.36087546843634</v>
       </c>
       <c r="Q31" t="n">
         <v>33.37552856090302</v>
@@ -24928,19 +24928,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G32" t="n">
-        <v>366.3666737523535</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H32" t="n">
-        <v>300.1694450707848</v>
+        <v>262.6401406086984</v>
       </c>
       <c r="I32" t="n">
         <v>56.76574385712078</v>
       </c>
       <c r="J32" t="n">
-        <v>10.09069110280005</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R32" t="n">
-        <v>40.5125885461229</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S32" t="n">
-        <v>116.9510516642238</v>
+        <v>93.98593139681815</v>
       </c>
       <c r="T32" t="n">
         <v>216.7230808039846</v>
       </c>
       <c r="U32" t="n">
-        <v>230.9541699383572</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V32" t="n">
         <v>308.8098746547977</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>359.1076593906506</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25040,31 +25040,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.808809210202199</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.25063875717579</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>99.50587214380286</v>
+        <v>82.68836089033165</v>
       </c>
       <c r="T33" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U33" t="n">
         <v>195.3510775903192</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W33" t="n">
-        <v>191.7531818222718</v>
+        <v>173.5715321189481</v>
       </c>
       <c r="X33" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>120.2786355777219</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -25101,25 +25101,25 @@
         <v>27.80579301341918</v>
       </c>
       <c r="K34" t="n">
-        <v>13.42337108707595</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L34" t="n">
-        <v>4.943103517458702</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M34" t="n">
-        <v>3.878875624559484</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5722022158511351</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O34" t="n">
-        <v>8.838421371704115</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P34" t="n">
         <v>15.36087546843635</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.37552856090303</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R34" t="n">
         <v>69.39351739781233</v>
@@ -25165,19 +25165,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>403.4346839880541</v>
       </c>
       <c r="G35" t="n">
-        <v>380.4198631738446</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H35" t="n">
-        <v>262.6401406086984</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I35" t="n">
         <v>56.76574385712078</v>
       </c>
       <c r="J35" t="n">
-        <v>10.09069110280005</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.5125885461229</v>
+        <v>2.983284084036491</v>
       </c>
       <c r="S35" t="n">
         <v>116.9510516642238</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>359.1076593906506</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>101.3706978471444</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071508</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
@@ -25247,7 +25247,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148542</v>
       </c>
       <c r="H36" t="n">
         <v>66.18988692910271</v>
@@ -25256,7 +25256,7 @@
         <v>26.58206201150025</v>
       </c>
       <c r="J36" t="n">
-        <v>13.70815661144293</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.808809210202199</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.25063875717579</v>
+        <v>7.003636597172303</v>
       </c>
       <c r="S36" t="n">
         <v>99.50587214380286</v>
@@ -25289,16 +25289,16 @@
         <v>156.1417168646031</v>
       </c>
       <c r="U36" t="n">
-        <v>162.2952662201135</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V36" t="n">
-        <v>174.0451072748101</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>137.0334175804097</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -25338,25 +25338,25 @@
         <v>27.80579301341918</v>
       </c>
       <c r="K37" t="n">
-        <v>13.42337108707595</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L37" t="n">
-        <v>4.943103517458702</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M37" t="n">
-        <v>3.878875624559484</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5722022158511351</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O37" t="n">
-        <v>8.838421371704115</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P37" t="n">
         <v>15.36087546843635</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.37552856090303</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R37" t="n">
         <v>69.39351739781233</v>
@@ -25390,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>368.5896634057582</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G38" t="n">
-        <v>380.9308579470343</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H38" t="n">
-        <v>262.6401406086985</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I38" t="n">
-        <v>19.23643939503441</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.579696329610428</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R38" t="n">
-        <v>40.5125885461229</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S38" t="n">
         <v>116.9510516642238</v>
@@ -25447,13 +25447,13 @@
         <v>216.7230808039846</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4302849789525</v>
+        <v>221.3744736087468</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>342.3933933940967</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25475,13 +25475,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071505</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>86.23207647738957</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>70.34097655723403</v>
       </c>
       <c r="G39" t="n">
         <v>105.5215890835718</v>
@@ -25493,7 +25493,7 @@
         <v>26.58206201150025</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,28 +25514,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.808809210202199</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R39" t="n">
         <v>34.25063875717579</v>
       </c>
       <c r="S39" t="n">
-        <v>61.97656768171649</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T39" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U39" t="n">
-        <v>176.0034228315565</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>137.0334175804097</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -25575,25 +25575,25 @@
         <v>27.80579301341918</v>
       </c>
       <c r="K40" t="n">
-        <v>13.42337108707595</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L40" t="n">
-        <v>4.943103517458702</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M40" t="n">
-        <v>3.878875624559484</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5722022158511351</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O40" t="n">
-        <v>8.838421371704115</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P40" t="n">
         <v>15.36087546843635</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.37552856090303</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R40" t="n">
         <v>69.39351739781233</v>
@@ -25636,13 +25636,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G41" t="n">
-        <v>366.3666737523535</v>
+        <v>380.4198631738446</v>
       </c>
       <c r="H41" t="n">
         <v>300.1694450707848</v>
@@ -25651,7 +25651,7 @@
         <v>56.76574385712078</v>
       </c>
       <c r="J41" t="n">
-        <v>10.09069110280005</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.579696329610428</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.5125885461229</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S41" t="n">
-        <v>79.42174720213742</v>
+        <v>79.4217472021374</v>
       </c>
       <c r="T41" t="n">
         <v>216.7230808039846</v>
       </c>
       <c r="U41" t="n">
-        <v>216.9009805168661</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>346.8668864859774</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25712,25 +25712,25 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071507</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>105.7490422990347</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>70.34097655723404</v>
       </c>
       <c r="G42" t="n">
-        <v>67.99228462148542</v>
+        <v>67.99228462148541</v>
       </c>
       <c r="H42" t="n">
-        <v>28.66058246701632</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I42" t="n">
         <v>26.58206201150025</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70815661144293</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.808809210202199</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.25063875717579</v>
@@ -25760,10 +25760,10 @@
         <v>99.50587214380286</v>
       </c>
       <c r="T42" t="n">
-        <v>118.6124124025167</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U42" t="n">
-        <v>162.2952662201135</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25812,25 +25812,25 @@
         <v>27.80579301341918</v>
       </c>
       <c r="K43" t="n">
-        <v>13.42337108707595</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L43" t="n">
-        <v>4.943103517458702</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M43" t="n">
-        <v>3.878875624559484</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5722022158511351</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O43" t="n">
-        <v>8.838421371704115</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P43" t="n">
         <v>15.36087546843635</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.37552856090303</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R43" t="n">
         <v>69.39351739781233</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>392.7335439300493</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>374.2795947084752</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>364.7911859776781</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>371.4144805752552</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G44" t="n">
-        <v>358.4601904813899</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8605650539583</v>
+        <v>262.6401406086984</v>
       </c>
       <c r="I44" t="n">
-        <v>55.6029857124895</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>38.61802642167715</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S44" t="n">
-        <v>116.2637719490099</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T44" t="n">
-        <v>216.5910537297839</v>
+        <v>216.7230808039846</v>
       </c>
       <c r="U44" t="n">
-        <v>254.427872148356</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25946,10 +25946,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>95.12581607645731</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>82.67237483259578</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -25958,16 +25958,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>60.09982450570423</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H45" t="n">
-        <v>20.62840793615702</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.58206201150025</v>
       </c>
       <c r="J45" t="n">
-        <v>12.18354252066406</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.748906304207672</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R45" t="n">
-        <v>33.24871511996928</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S45" t="n">
-        <v>85.2393137620939</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T45" t="n">
-        <v>110.6710451637269</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3500159306301</v>
+        <v>195.3510775903192</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>137.0334175804097</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2301665618121</v>
+        <v>165.2436954710736</v>
       </c>
       <c r="H46" t="n">
-        <v>145.0198283820698</v>
+        <v>145.1401126844127</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7256786086731</v>
+        <v>105.1325298071908</v>
       </c>
       <c r="J46" t="n">
-        <v>26.84929912863322</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K46" t="n">
-        <v>11.85155781106146</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L46" t="n">
-        <v>2.931723680530617</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M46" t="n">
-        <v>1.758157602781878</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O46" t="n">
-        <v>6.926171542637348</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P46" t="n">
-        <v>13.72461538830359</v>
+        <v>15.36087546843635</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.24266689538116</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R46" t="n">
-        <v>68.78520844138295</v>
+        <v>69.39351739781233</v>
       </c>
       <c r="S46" t="n">
-        <v>178.468028676688</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T46" t="n">
-        <v>235.6675363340381</v>
+        <v>235.7253416736098</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9511994010516</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26088,7 +26088,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>234.492145635948</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>126018.9865863653</v>
+        <v>134855.6823291591</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>134855.682329159</v>
+        <v>134855.6823291591</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157943.4857004307</v>
+        <v>157943.4857004308</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>165245.9294258689</v>
+        <v>157943.4857004307</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>25097.35180255189</v>
       </c>
       <c r="D2" t="n">
-        <v>25097.35180255189</v>
+        <v>25097.35180255188</v>
       </c>
       <c r="E2" t="n">
-        <v>28741.17237934647</v>
+        <v>30756.55912770296</v>
       </c>
       <c r="F2" t="n">
         <v>30756.55912770296</v>
       </c>
       <c r="G2" t="n">
-        <v>33663.27000880569</v>
+        <v>33663.27000880567</v>
       </c>
       <c r="H2" t="n">
         <v>33663.27000880567</v>
       </c>
       <c r="I2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.1984930807</v>
       </c>
       <c r="J2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.1984930807</v>
       </c>
       <c r="K2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.1984930807</v>
       </c>
       <c r="L2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.1984930807</v>
       </c>
       <c r="M2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.19849308071</v>
       </c>
       <c r="N2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.1984930807</v>
       </c>
       <c r="O2" t="n">
-        <v>36022.19849308069</v>
+        <v>36022.19849308071</v>
       </c>
       <c r="P2" t="n">
-        <v>37687.66811467188</v>
+        <v>36022.1984930807</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>19474.41292377708</v>
+        <v>29747.88540830405</v>
       </c>
       <c r="F3" t="n">
-        <v>10057.7006179836</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14566.23994170121</v>
+        <v>14566.23994170115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10216.96369387288</v>
+        <v>10216.963693873</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2182.673537389487</v>
+        <v>3907.067696732477</v>
       </c>
       <c r="N3" t="n">
-        <v>1694.798993055487</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.217498763122</v>
+        <v>2465.217498763102</v>
       </c>
       <c r="P3" t="n">
-        <v>6855.172091424163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.343000110070174</v>
+        <v>10.33799579267563</v>
       </c>
       <c r="F4" t="n">
         <v>10.33799579267563</v>
       </c>
       <c r="G4" t="n">
-        <v>18.78334192199198</v>
+        <v>18.78334192199194</v>
       </c>
       <c r="H4" t="n">
-        <v>18.78334192199198</v>
+        <v>18.78334192199193</v>
       </c>
       <c r="I4" t="n">
-        <v>27.19396146355789</v>
+        <v>27.19396146355792</v>
       </c>
       <c r="J4" t="n">
-        <v>27.19396146355789</v>
+        <v>27.1939614635579</v>
       </c>
       <c r="K4" t="n">
         <v>27.1939614635579</v>
       </c>
       <c r="L4" t="n">
-        <v>27.19396146355787</v>
+        <v>27.19396146355789</v>
       </c>
       <c r="M4" t="n">
         <v>27.19396146355788</v>
       </c>
       <c r="N4" t="n">
-        <v>27.19396146355786</v>
+        <v>27.19396146355789</v>
       </c>
       <c r="O4" t="n">
-        <v>27.19396146355787</v>
+        <v>27.19396146355789</v>
       </c>
       <c r="P4" t="n">
-        <v>32.95512399923144</v>
+        <v>27.19396146355789</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>3813.693068895017</v>
+        <v>4457.11039988581</v>
       </c>
       <c r="F5" t="n">
-        <v>4457.110399885809</v>
+        <v>4457.11039988581</v>
       </c>
       <c r="G5" t="n">
-        <v>5409.640682804827</v>
+        <v>5409.640682804823</v>
       </c>
       <c r="H5" t="n">
-        <v>5409.640682804827</v>
+        <v>5409.640682804822</v>
       </c>
       <c r="I5" t="n">
+        <v>6321.855464663674</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6321.855464663673</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6321.855464663672</v>
+      </c>
+      <c r="L5" t="n">
         <v>6321.855464663671</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6321.855464663671</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6321.855464663673</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6321.855464663669</v>
       </c>
       <c r="M5" t="n">
         <v>6321.855464663671</v>
       </c>
       <c r="N5" t="n">
-        <v>6321.855464663668</v>
+        <v>6321.855464663673</v>
       </c>
       <c r="O5" t="n">
-        <v>6321.855464663669</v>
+        <v>6321.855464663671</v>
       </c>
       <c r="P5" t="n">
-        <v>6964.288110247699</v>
+        <v>6321.855464663673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136168.4226828919</v>
+        <v>-137604.1900608891</v>
       </c>
       <c r="C6" t="n">
-        <v>-11353.94973556733</v>
+        <v>-12789.71711356458</v>
       </c>
       <c r="D6" t="n">
-        <v>-11353.94973556733</v>
+        <v>-12789.71711356458</v>
       </c>
       <c r="E6" t="n">
-        <v>5447.723386564299</v>
+        <v>-4851.009690237195</v>
       </c>
       <c r="F6" t="n">
-        <v>16231.41011404087</v>
+        <v>24896.87571806685</v>
       </c>
       <c r="G6" t="n">
-        <v>13668.60604237766</v>
+        <v>12298.7303428901</v>
       </c>
       <c r="H6" t="n">
-        <v>28234.84598407885</v>
+        <v>26864.97028459126</v>
       </c>
       <c r="I6" t="n">
-        <v>19456.18537308059</v>
+        <v>18104.45527731806</v>
       </c>
       <c r="J6" t="n">
-        <v>29673.14906695346</v>
+        <v>28321.41897119106</v>
       </c>
       <c r="K6" t="n">
-        <v>29673.14906695347</v>
+        <v>28321.41897119106</v>
       </c>
       <c r="L6" t="n">
-        <v>29673.14906695346</v>
+        <v>28321.41897119107</v>
       </c>
       <c r="M6" t="n">
-        <v>27490.47552956398</v>
+        <v>24414.35127445859</v>
       </c>
       <c r="N6" t="n">
-        <v>27978.35007389798</v>
+        <v>28321.41897119106</v>
       </c>
       <c r="O6" t="n">
-        <v>27207.93156819035</v>
+        <v>25856.20147242797</v>
       </c>
       <c r="P6" t="n">
-        <v>23835.25278900078</v>
+        <v>28321.41897119106</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>150.5124456577327</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="F3" t="n">
         <v>160.7282770233651</v>
       </c>
       <c r="G3" t="n">
-        <v>175.8520361642236</v>
+        <v>175.8520361642235</v>
       </c>
       <c r="H3" t="n">
-        <v>175.8520361642236</v>
+        <v>175.8520361642235</v>
       </c>
       <c r="I3" t="n">
         <v>185.3244840994871</v>
@@ -26767,19 +26767,19 @@
         <v>185.3244840994871</v>
       </c>
       <c r="L3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="M3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="N3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="O3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="P3" t="n">
-        <v>192.8268792353934</v>
+        <v>185.3244840994871</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="F4" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="G4" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="H4" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="I4" t="n">
+        <v>37.52930446208644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37.52930446208644</v>
+      </c>
+      <c r="K4" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>37.5293044620864</v>
+      </c>
+      <c r="N4" t="n">
         <v>37.52930446208643</v>
       </c>
-      <c r="L4" t="n">
-        <v>37.52930446208639</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="N4" t="n">
-        <v>37.52930446208637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37.52930446208639</v>
-      </c>
       <c r="P4" t="n">
-        <v>45.40562735059413</v>
+        <v>37.52930446208643</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20.98485216602538</v>
+        <v>31.20068353165777</v>
       </c>
       <c r="F3" t="n">
-        <v>10.2158313656324</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.12375914085851</v>
+        <v>15.12375914085845</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.472447935263489</v>
+        <v>9.472447935263631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.502395135906397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="F4" t="n">
-        <v>6.919608671381674</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.2439528560576</v>
+        <v>10.24395285605755</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.6071614616793</v>
+        <v>11.60716146167936</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.758581472967876</v>
+        <v>15.67819014434951</v>
       </c>
       <c r="N4" t="n">
-        <v>6.919608671381624</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.24395285605762</v>
+        <v>10.24395285605754</v>
       </c>
       <c r="P4" t="n">
-        <v>7.876322888507737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N4" t="n">
-        <v>6.919608671381674</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.2439528560576</v>
+        <v>10.24395285605755</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H2" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I2" t="n">
         <v>20.07482431392581</v>
@@ -31053,25 +31053,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K2" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L2" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M2" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O2" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P2" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R2" t="n">
         <v>32.70929726501893</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H3" t="n">
         <v>2.690752461025844</v>
@@ -31153,7 +31153,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R3" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S3" t="n">
         <v>5.174993947522452</v>
@@ -31162,7 +31162,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I4" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J4" t="n">
         <v>16.51370646860668</v>
@@ -31217,19 +31217,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M4" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N4" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O4" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P4" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R4" t="n">
         <v>10.50235208868826</v>
@@ -31238,7 +31238,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U4" t="n">
         <v>0.01274041903197122</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6050751584230455</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H11" t="n">
-        <v>6.196725966200015</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I11" t="n">
-        <v>23.32716004510448</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J11" t="n">
-        <v>51.354997727208</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K11" t="n">
-        <v>76.96782918325553</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M11" t="n">
-        <v>102.0488059300133</v>
+        <v>108.968414601395</v>
       </c>
       <c r="N11" t="n">
-        <v>101.6708722295872</v>
+        <v>108.5904809009689</v>
       </c>
       <c r="O11" t="n">
-        <v>101.948357098751</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P11" t="n">
-        <v>87.01056412518203</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.34131001415669</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R11" t="n">
-        <v>38.00855242029166</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S11" t="n">
-        <v>13.78815017256516</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T11" t="n">
-        <v>2.648716505996882</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04840601267384362</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3237437510373873</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H12" t="n">
-        <v>3.126683069229504</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I12" t="n">
-        <v>11.14644055106794</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J12" t="n">
-        <v>30.58668482937</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K12" t="n">
-        <v>52.27751614887494</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>64.8731052838169</v>
+        <v>71.79271395519858</v>
       </c>
       <c r="M12" t="n">
-        <v>66.32286521138528</v>
+        <v>73.24247388276694</v>
       </c>
       <c r="N12" t="n">
-        <v>61.95197486671784</v>
+        <v>68.87158353809951</v>
       </c>
       <c r="O12" t="n">
-        <v>66.15617839325198</v>
+        <v>72.79620691629499</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.32560583417596</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R12" t="n">
-        <v>20.10051113897042</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S12" t="n">
-        <v>6.013398182646202</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T12" t="n">
-        <v>1.304914505277889</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0212989309893018</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2714158856123048</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H13" t="n">
-        <v>2.413133964807584</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I13" t="n">
-        <v>8.162215905504585</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J13" t="n">
-        <v>19.18910311278995</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K13" t="n">
-        <v>31.53359107386595</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L13" t="n">
-        <v>40.35213993912394</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M13" t="n">
-        <v>42.54567377829974</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N13" t="n">
-        <v>41.53403275010844</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O13" t="n">
-        <v>38.36340172272833</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P13" t="n">
-        <v>32.82651765623729</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.72737929431763</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R13" t="n">
-        <v>12.20384518398599</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S13" t="n">
-        <v>4.730038661079892</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T13" t="n">
-        <v>1.15968605670712</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01480450285158028</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,19 +32083,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>71.79271395519856</v>
+        <v>71.79271395519858</v>
       </c>
       <c r="M15" t="n">
         <v>73.24247388276694</v>
       </c>
       <c r="N15" t="n">
-        <v>56.48089098225186</v>
+        <v>68.87158353809951</v>
       </c>
       <c r="O15" t="n">
-        <v>73.42966914434952</v>
+        <v>72.79620691629499</v>
       </c>
       <c r="P15" t="n">
-        <v>66.01686533059687</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>44.13052617441525</v>
@@ -32226,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.706942858951652</v>
+        <v>0.7069428589516518</v>
       </c>
       <c r="H17" t="n">
-        <v>7.239978554238608</v>
+        <v>7.239978554238605</v>
       </c>
       <c r="I17" t="n">
-        <v>27.25441456973359</v>
+        <v>27.25441456973358</v>
       </c>
       <c r="J17" t="n">
-        <v>60.00089147494783</v>
+        <v>60.00089147494781</v>
       </c>
       <c r="K17" t="n">
-        <v>89.92578269437128</v>
+        <v>89.92578269437125</v>
       </c>
       <c r="L17" t="n">
         <v>111.5608852140129</v>
       </c>
       <c r="M17" t="n">
-        <v>119.2123674574526</v>
+        <v>119.2123674574525</v>
       </c>
       <c r="N17" t="n">
         <v>118.8344337570264</v>
@@ -32256,19 +32256,19 @@
         <v>101.6592667958213</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.34187565961525</v>
+        <v>76.34187565961524</v>
       </c>
       <c r="R17" t="n">
-        <v>44.40749936362175</v>
+        <v>44.40749936362173</v>
       </c>
       <c r="S17" t="n">
         <v>16.10946039836078</v>
       </c>
       <c r="T17" t="n">
-        <v>3.094642365060858</v>
+        <v>3.094642365060857</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05655542871613214</v>
+        <v>0.05655542871613213</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3782477759004054</v>
+        <v>0.3782477759004053</v>
       </c>
       <c r="H18" t="n">
-        <v>3.653077204090758</v>
+        <v>3.653077204090757</v>
       </c>
       <c r="I18" t="n">
-        <v>13.02300456499203</v>
+        <v>13.02300456499202</v>
       </c>
       <c r="J18" t="n">
-        <v>35.73611991522208</v>
+        <v>35.73611991522207</v>
       </c>
       <c r="K18" t="n">
-        <v>61.07872090054924</v>
+        <v>61.07872090054922</v>
       </c>
       <c r="L18" t="n">
-        <v>82.03666681125617</v>
+        <v>82.03666681125613</v>
       </c>
       <c r="M18" t="n">
-        <v>83.48642673882455</v>
+        <v>83.48642673882451</v>
       </c>
       <c r="N18" t="n">
-        <v>79.11553639415712</v>
+        <v>79.11553639415708</v>
       </c>
       <c r="O18" t="n">
-        <v>59.4042241918843</v>
+        <v>77.3733245713255</v>
       </c>
       <c r="P18" t="n">
-        <v>72.22873538224496</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.28299679739211</v>
+        <v>48.28299679739209</v>
       </c>
       <c r="R18" t="n">
-        <v>23.48454173529009</v>
+        <v>23.48454173529008</v>
       </c>
       <c r="S18" t="n">
-        <v>7.025786539202701</v>
+        <v>7.025786539202699</v>
       </c>
       <c r="T18" t="n">
-        <v>1.524603973914353</v>
+        <v>1.524603973914352</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02488472209871089</v>
+        <v>0.02488472209871088</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3171102291485998</v>
+        <v>0.3171102291485997</v>
       </c>
       <c r="H19" t="n">
-        <v>2.819398219157554</v>
+        <v>2.819398219157552</v>
       </c>
       <c r="I19" t="n">
-        <v>9.536369436577896</v>
+        <v>9.536369436577893</v>
       </c>
       <c r="J19" t="n">
-        <v>22.41969320080601</v>
+        <v>22.419693200806</v>
       </c>
       <c r="K19" t="n">
-        <v>36.84244298653732</v>
+        <v>36.84244298653731</v>
       </c>
       <c r="L19" t="n">
-        <v>47.14564261360184</v>
+        <v>47.14564261360183</v>
       </c>
       <c r="M19" t="n">
-        <v>49.70846982917551</v>
+        <v>49.70846982917549</v>
       </c>
       <c r="N19" t="n">
-        <v>48.52651352053077</v>
+        <v>48.52651352053076</v>
       </c>
       <c r="O19" t="n">
-        <v>44.82208948002211</v>
+        <v>44.82208948002209</v>
       </c>
       <c r="P19" t="n">
-        <v>38.35304080539064</v>
+        <v>38.35304080539063</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.55365746079776</v>
+        <v>26.55365746079775</v>
       </c>
       <c r="R19" t="n">
-        <v>14.25842903062704</v>
+        <v>14.25842903062703</v>
       </c>
       <c r="S19" t="n">
-        <v>5.526366447980597</v>
+        <v>5.526366447980595</v>
       </c>
       <c r="T19" t="n">
         <v>1.354925524544017</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01729692158992365</v>
+        <v>0.01729692158992364</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.706942858951652</v>
+        <v>0.7069428589516517</v>
       </c>
       <c r="H20" t="n">
-        <v>7.239978554238608</v>
+        <v>7.239978554238604</v>
       </c>
       <c r="I20" t="n">
-        <v>27.25441456973359</v>
+        <v>27.25441456973358</v>
       </c>
       <c r="J20" t="n">
-        <v>60.00089147494783</v>
+        <v>60.0008914749478</v>
       </c>
       <c r="K20" t="n">
-        <v>89.92578269437128</v>
+        <v>89.92578269437122</v>
       </c>
       <c r="L20" t="n">
         <v>111.5608852140129</v>
       </c>
       <c r="M20" t="n">
-        <v>119.2123674574526</v>
+        <v>119.2123674574525</v>
       </c>
       <c r="N20" t="n">
         <v>118.8344337570264</v>
@@ -32493,19 +32493,19 @@
         <v>101.6592667958213</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.34187565961525</v>
+        <v>76.34187565961523</v>
       </c>
       <c r="R20" t="n">
-        <v>44.40749936362175</v>
+        <v>44.40749936362172</v>
       </c>
       <c r="S20" t="n">
         <v>16.10946039836078</v>
       </c>
       <c r="T20" t="n">
-        <v>3.094642365060858</v>
+        <v>3.094642365060857</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05655542871613214</v>
+        <v>0.05655542871613212</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3782477759004054</v>
+        <v>0.3782477759004052</v>
       </c>
       <c r="H21" t="n">
-        <v>3.653077204090758</v>
+        <v>3.653077204090756</v>
       </c>
       <c r="I21" t="n">
-        <v>13.02300456499203</v>
+        <v>13.02300456499202</v>
       </c>
       <c r="J21" t="n">
-        <v>35.73611991522208</v>
+        <v>35.73611991522206</v>
       </c>
       <c r="K21" t="n">
-        <v>61.07872090054924</v>
+        <v>61.07872090054921</v>
       </c>
       <c r="L21" t="n">
-        <v>82.03666681125617</v>
+        <v>82.03666681125613</v>
       </c>
       <c r="M21" t="n">
-        <v>83.48642673882455</v>
+        <v>83.48642673882451</v>
       </c>
       <c r="N21" t="n">
-        <v>54.84613858563429</v>
+        <v>79.11553639415708</v>
       </c>
       <c r="O21" t="n">
-        <v>83.67362200040711</v>
+        <v>77.3733245713255</v>
       </c>
       <c r="P21" t="n">
-        <v>72.22873538224496</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.28299679739211</v>
+        <v>48.28299679739208</v>
       </c>
       <c r="R21" t="n">
-        <v>23.48454173529009</v>
+        <v>23.48454173529008</v>
       </c>
       <c r="S21" t="n">
-        <v>7.025786539202701</v>
+        <v>7.025786539202698</v>
       </c>
       <c r="T21" t="n">
-        <v>1.524603973914353</v>
+        <v>1.524603973914352</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02488472209871089</v>
+        <v>0.02488472209871088</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3171102291485998</v>
+        <v>0.3171102291485997</v>
       </c>
       <c r="H22" t="n">
-        <v>2.819398219157554</v>
+        <v>2.819398219157552</v>
       </c>
       <c r="I22" t="n">
-        <v>9.536369436577896</v>
+        <v>9.536369436577891</v>
       </c>
       <c r="J22" t="n">
-        <v>22.41969320080601</v>
+        <v>22.41969320080599</v>
       </c>
       <c r="K22" t="n">
-        <v>36.84244298653732</v>
+        <v>36.8424429865373</v>
       </c>
       <c r="L22" t="n">
-        <v>47.14564261360184</v>
+        <v>47.14564261360182</v>
       </c>
       <c r="M22" t="n">
-        <v>49.70846982917551</v>
+        <v>49.70846982917548</v>
       </c>
       <c r="N22" t="n">
-        <v>48.52651352053077</v>
+        <v>48.52651352053075</v>
       </c>
       <c r="O22" t="n">
-        <v>44.82208948002211</v>
+        <v>44.82208948002209</v>
       </c>
       <c r="P22" t="n">
-        <v>38.35304080539064</v>
+        <v>38.35304080539062</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.55365746079776</v>
+        <v>26.55365746079774</v>
       </c>
       <c r="R22" t="n">
-        <v>14.25842903062704</v>
+        <v>14.25842903062703</v>
       </c>
       <c r="S22" t="n">
-        <v>5.526366447980597</v>
+        <v>5.526366447980594</v>
       </c>
       <c r="T22" t="n">
-        <v>1.354925524544017</v>
+        <v>1.354925524544016</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01729692158992365</v>
+        <v>0.01729692158992364</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7450230516562287</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H23" t="n">
-        <v>7.629967327774355</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I23" t="n">
-        <v>28.72250119897679</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J23" t="n">
-        <v>63.23290023050791</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K23" t="n">
-        <v>94.76972600711609</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L23" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M23" t="n">
         <v>130.8195289191319</v>
       </c>
       <c r="N23" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O23" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P23" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.45410806954163</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R23" t="n">
-        <v>46.79955426860062</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S23" t="n">
         <v>16.97721278961633</v>
       </c>
       <c r="T23" t="n">
-        <v>3.261338408625143</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05960184413249829</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3986224752328589</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H24" t="n">
-        <v>3.849853905538402</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I24" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J24" t="n">
-        <v>37.66108218855709</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K24" t="n">
-        <v>64.36878802915864</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L24" t="n">
-        <v>62.1630693776839</v>
+        <v>86.55177910702935</v>
       </c>
       <c r="M24" t="n">
-        <v>95.09358820050383</v>
+        <v>95.09358820050386</v>
       </c>
       <c r="N24" t="n">
-        <v>90.7226978558364</v>
+        <v>90.72269785583643</v>
       </c>
       <c r="O24" t="n">
-        <v>94.84242725419692</v>
+        <v>92.31349184962764</v>
       </c>
       <c r="P24" t="n">
-        <v>76.11940932757989</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.88380929463653</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R24" t="n">
-        <v>24.74956034822962</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S24" t="n">
-        <v>7.404237643031388</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T24" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02622516284426705</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3341916926384192</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H25" t="n">
         <v>2.971267958185221</v>
       </c>
       <c r="I25" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J25" t="n">
-        <v>23.62735266953624</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K25" t="n">
-        <v>38.82699847199088</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L25" t="n">
-        <v>49.68519037644281</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M25" t="n">
-        <v>52.38606687422057</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N25" t="n">
-        <v>51.14044329256831</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O25" t="n">
-        <v>47.23647670129222</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P25" t="n">
-        <v>40.41896617146843</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q25" t="n">
         <v>27.98399709902255</v>
@@ -32894,7 +32894,7 @@
         <v>15.02647374354201</v>
       </c>
       <c r="S25" t="n">
-        <v>5.824049770798632</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T25" t="n">
         <v>1.427909959455064</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7450230516562287</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H26" t="n">
-        <v>7.629967327774355</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I26" t="n">
         <v>28.72250119897679</v>
       </c>
       <c r="J26" t="n">
-        <v>63.23290023050791</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K26" t="n">
-        <v>94.76972600711609</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L26" t="n">
         <v>117.5702252242404</v>
@@ -32958,28 +32958,28 @@
         <v>130.8195289191319</v>
       </c>
       <c r="N26" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O26" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P26" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.45410806954163</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R26" t="n">
-        <v>46.79955426860062</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S26" t="n">
         <v>16.97721278961633</v>
       </c>
       <c r="T26" t="n">
-        <v>3.261338408625143</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05960184413249829</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3986224752328589</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H27" t="n">
         <v>3.849853905538402</v>
@@ -33025,34 +33025,34 @@
         <v>13.72450188849975</v>
       </c>
       <c r="J27" t="n">
-        <v>37.66108218855709</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K27" t="n">
-        <v>64.36878802915864</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L27" t="n">
-        <v>86.55177910702932</v>
+        <v>86.55177910702933</v>
       </c>
       <c r="M27" t="n">
-        <v>92.56465279593455</v>
+        <v>92.56465279593458</v>
       </c>
       <c r="N27" t="n">
-        <v>90.7226978558364</v>
+        <v>90.72269785583643</v>
       </c>
       <c r="O27" t="n">
-        <v>94.84242725419692</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.88380929463653</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R27" t="n">
-        <v>24.74956034822962</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S27" t="n">
-        <v>7.404237643031388</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T27" t="n">
         <v>1.60672831025876</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3341916926384192</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H28" t="n">
         <v>2.971267958185221</v>
       </c>
       <c r="I28" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J28" t="n">
         <v>23.62735266953624</v>
       </c>
       <c r="K28" t="n">
-        <v>38.82699847199088</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L28" t="n">
-        <v>49.68519037644281</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M28" t="n">
         <v>52.38606687422057</v>
       </c>
       <c r="N28" t="n">
-        <v>51.14044329256831</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O28" t="n">
-        <v>47.23647670129222</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P28" t="n">
-        <v>40.41896617146843</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q28" t="n">
         <v>27.98399709902255</v>
@@ -33131,7 +33131,7 @@
         <v>15.02647374354201</v>
       </c>
       <c r="S28" t="n">
-        <v>5.824049770798632</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T28" t="n">
         <v>1.427909959455064</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7450230516562287</v>
+        <v>0.745023051656229</v>
       </c>
       <c r="H29" t="n">
-        <v>7.629967327774355</v>
+        <v>7.629967327774356</v>
       </c>
       <c r="I29" t="n">
         <v>28.72250119897679</v>
       </c>
       <c r="J29" t="n">
-        <v>63.23290023050791</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K29" t="n">
-        <v>94.76972600711609</v>
+        <v>94.76972600711611</v>
       </c>
       <c r="L29" t="n">
         <v>117.5702252242404</v>
@@ -33201,22 +33201,22 @@
         <v>125.5280026947435</v>
       </c>
       <c r="P29" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.45410806954163</v>
+        <v>80.45410806954165</v>
       </c>
       <c r="R29" t="n">
-        <v>46.79955426860062</v>
+        <v>46.79955426860063</v>
       </c>
       <c r="S29" t="n">
         <v>16.97721278961633</v>
       </c>
       <c r="T29" t="n">
-        <v>3.261338408625143</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05960184413249829</v>
+        <v>0.0596018441324983</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3986224752328589</v>
+        <v>0.398622475232859</v>
       </c>
       <c r="H30" t="n">
         <v>3.849853905538402</v>
@@ -33262,34 +33262,34 @@
         <v>13.72450188849975</v>
       </c>
       <c r="J30" t="n">
-        <v>37.66108218855709</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K30" t="n">
-        <v>64.36878802915864</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>86.55177910702932</v>
+        <v>70.70607462222713</v>
       </c>
       <c r="M30" t="n">
-        <v>95.09358820050386</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N30" t="n">
-        <v>66.33398812649104</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O30" t="n">
-        <v>94.84242725419692</v>
+        <v>94.84242725419693</v>
       </c>
       <c r="P30" t="n">
-        <v>76.11940932757989</v>
+        <v>76.1194093275799</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.88380929463653</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R30" t="n">
-        <v>24.74956034822962</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S30" t="n">
-        <v>7.404237643031388</v>
+        <v>7.404237643031389</v>
       </c>
       <c r="T30" t="n">
         <v>1.60672831025876</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3341916926384192</v>
+        <v>0.3341916926384193</v>
       </c>
       <c r="H31" t="n">
         <v>2.971267958185221</v>
       </c>
       <c r="I31" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J31" t="n">
         <v>23.62735266953624</v>
       </c>
       <c r="K31" t="n">
-        <v>38.82699847199088</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L31" t="n">
-        <v>49.68519037644281</v>
+        <v>49.68519037644282</v>
       </c>
       <c r="M31" t="n">
         <v>52.38606687422057</v>
       </c>
       <c r="N31" t="n">
-        <v>51.14044329256831</v>
+        <v>51.14044329256833</v>
       </c>
       <c r="O31" t="n">
-        <v>47.23647670129222</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P31" t="n">
-        <v>40.41896617146843</v>
+        <v>40.41896617146844</v>
       </c>
       <c r="Q31" t="n">
         <v>27.98399709902255</v>
@@ -33368,7 +33368,7 @@
         <v>15.02647374354201</v>
       </c>
       <c r="S31" t="n">
-        <v>5.824049770798632</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T31" t="n">
         <v>1.427909959455064</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7450230516562286</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H32" t="n">
-        <v>7.629967327774354</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I32" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J32" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K32" t="n">
-        <v>94.76972600711608</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L32" t="n">
         <v>117.5702252242404</v>
@@ -33441,7 +33441,7 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.45410806954162</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R32" t="n">
         <v>46.79955426860062</v>
@@ -33453,7 +33453,7 @@
         <v>3.261338408625143</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05960184413249828</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>0.3986224752328589</v>
       </c>
       <c r="H33" t="n">
-        <v>3.849853905538401</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I33" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J33" t="n">
-        <v>37.66108218855708</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K33" t="n">
-        <v>64.36878802915862</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L33" t="n">
-        <v>86.5517791070293</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M33" t="n">
-        <v>95.09358820050382</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N33" t="n">
-        <v>66.33398812649099</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O33" t="n">
-        <v>94.84242725419691</v>
+        <v>92.31349184962764</v>
       </c>
       <c r="P33" t="n">
-        <v>76.11940932757987</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.88380929463652</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R33" t="n">
         <v>24.74956034822962</v>
       </c>
       <c r="S33" t="n">
-        <v>7.404237643031387</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T33" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.3341916926384192</v>
       </c>
       <c r="H34" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I34" t="n">
         <v>10.05005562952628</v>
@@ -33584,34 +33584,34 @@
         <v>38.82699847199088</v>
       </c>
       <c r="L34" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M34" t="n">
-        <v>52.38606687422056</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N34" t="n">
         <v>51.14044329256831</v>
       </c>
       <c r="O34" t="n">
-        <v>47.23647670129221</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P34" t="n">
         <v>40.41896617146843</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.98399709902254</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R34" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S34" t="n">
-        <v>5.824049770798631</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T34" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7450230516562286</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H35" t="n">
-        <v>7.629967327774354</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I35" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J35" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K35" t="n">
-        <v>94.76972600711608</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L35" t="n">
         <v>117.5702252242404</v>
@@ -33678,7 +33678,7 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.45410806954162</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R35" t="n">
         <v>46.79955426860062</v>
@@ -33690,7 +33690,7 @@
         <v>3.261338408625143</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05960184413249828</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>0.3986224752328589</v>
       </c>
       <c r="H36" t="n">
-        <v>3.849853905538401</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I36" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J36" t="n">
-        <v>37.66108218855708</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K36" t="n">
-        <v>64.36878802915862</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L36" t="n">
-        <v>86.5517791070293</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M36" t="n">
-        <v>95.09358820050385</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N36" t="n">
-        <v>90.72269785583642</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O36" t="n">
-        <v>70.45371752485157</v>
+        <v>92.31349184962761</v>
       </c>
       <c r="P36" t="n">
-        <v>76.11940932757987</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.88380929463652</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R36" t="n">
         <v>24.74956034822962</v>
       </c>
       <c r="S36" t="n">
-        <v>7.404237643031387</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T36" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.3341916926384192</v>
       </c>
       <c r="H37" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I37" t="n">
         <v>10.05005562952628</v>
@@ -33821,34 +33821,34 @@
         <v>38.82699847199088</v>
       </c>
       <c r="L37" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M37" t="n">
-        <v>52.38606687422056</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N37" t="n">
         <v>51.14044329256831</v>
       </c>
       <c r="O37" t="n">
-        <v>47.23647670129221</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P37" t="n">
         <v>40.41896617146843</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.98399709902254</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R37" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S37" t="n">
-        <v>5.824049770798631</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T37" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7450230516562286</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H38" t="n">
-        <v>7.629967327774354</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I38" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J38" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K38" t="n">
-        <v>94.76972600711608</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L38" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M38" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N38" t="n">
         <v>130.4415952187057</v>
@@ -33915,7 +33915,7 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.45410806954162</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R38" t="n">
         <v>46.79955426860062</v>
@@ -33927,7 +33927,7 @@
         <v>3.261338408625143</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05960184413249828</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.3986224752328589</v>
       </c>
       <c r="H39" t="n">
-        <v>3.849853905538401</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I39" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J39" t="n">
-        <v>37.66108218855708</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L39" t="n">
-        <v>86.5517791070293</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M39" t="n">
-        <v>79.24788371570159</v>
+        <v>95.09358820050386</v>
       </c>
       <c r="N39" t="n">
-        <v>90.72269785583637</v>
+        <v>90.72269785583643</v>
       </c>
       <c r="O39" t="n">
-        <v>94.84242725419691</v>
+        <v>70.45371752485153</v>
       </c>
       <c r="P39" t="n">
-        <v>76.11940932757987</v>
+        <v>76.11940932757989</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.88380929463652</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R39" t="n">
         <v>24.74956034822962</v>
       </c>
       <c r="S39" t="n">
-        <v>7.404237643031387</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T39" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.3341916926384192</v>
       </c>
       <c r="H40" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I40" t="n">
         <v>10.05005562952628</v>
@@ -34058,34 +34058,34 @@
         <v>38.82699847199088</v>
       </c>
       <c r="L40" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M40" t="n">
-        <v>52.38606687422056</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N40" t="n">
         <v>51.14044329256831</v>
       </c>
       <c r="O40" t="n">
-        <v>47.23647670129221</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P40" t="n">
         <v>40.41896617146843</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.98399709902254</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R40" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S40" t="n">
-        <v>5.824049770798631</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T40" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7450230516562286</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H41" t="n">
-        <v>7.629967327774354</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I41" t="n">
-        <v>28.72250119897678</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J41" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K41" t="n">
-        <v>94.76972600711608</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L41" t="n">
         <v>117.5702252242404</v>
       </c>
       <c r="M41" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N41" t="n">
         <v>130.4415952187057</v>
@@ -34152,7 +34152,7 @@
         <v>107.1352461069803</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.45410806954162</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R41" t="n">
         <v>46.79955426860062</v>
@@ -34164,7 +34164,7 @@
         <v>3.261338408625143</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05960184413249828</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.3986224752328589</v>
       </c>
       <c r="H42" t="n">
-        <v>3.849853905538401</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I42" t="n">
         <v>13.72450188849975</v>
       </c>
       <c r="J42" t="n">
-        <v>37.66108218855708</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K42" t="n">
-        <v>64.36878802915862</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L42" t="n">
-        <v>86.5517791070293</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M42" t="n">
-        <v>95.09358820050382</v>
+        <v>92.56465279593455</v>
       </c>
       <c r="N42" t="n">
-        <v>66.33398812649099</v>
+        <v>90.7226978558364</v>
       </c>
       <c r="O42" t="n">
-        <v>94.84242725419691</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P42" t="n">
-        <v>76.11940932757987</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.88380929463652</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R42" t="n">
         <v>24.74956034822962</v>
       </c>
       <c r="S42" t="n">
-        <v>7.404237643031387</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T42" t="n">
         <v>1.60672831025876</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.3341916926384192</v>
       </c>
       <c r="H43" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I43" t="n">
         <v>10.05005562952628</v>
@@ -34295,34 +34295,34 @@
         <v>38.82699847199088</v>
       </c>
       <c r="L43" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M43" t="n">
-        <v>52.38606687422056</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N43" t="n">
         <v>51.14044329256831</v>
       </c>
       <c r="O43" t="n">
-        <v>47.23647670129221</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P43" t="n">
         <v>40.41896617146843</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.98399709902254</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R43" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S43" t="n">
-        <v>5.824049770798631</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T43" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7751834341121338</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H44" t="n">
-        <v>7.938847344600892</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I44" t="n">
-        <v>29.88525934360807</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J44" t="n">
-        <v>65.79272499097478</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K44" t="n">
-        <v>98.60623975694142</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L44" t="n">
-        <v>122.3297597786507</v>
+        <v>117.5702252242404</v>
       </c>
       <c r="M44" t="n">
-        <v>136.1154281750423</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N44" t="n">
-        <v>138.3179181072134</v>
+        <v>130.4415952187057</v>
       </c>
       <c r="O44" t="n">
-        <v>130.6096878342609</v>
+        <v>125.5280026947435</v>
       </c>
       <c r="P44" t="n">
-        <v>111.4723468046176</v>
+        <v>107.1352461069803</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.71109007047674</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R44" t="n">
-        <v>48.69411639304636</v>
+        <v>46.79955426860062</v>
       </c>
       <c r="S44" t="n">
-        <v>17.66449250483027</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T44" t="n">
-        <v>3.393365482825867</v>
+        <v>3.261338408625143</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06201467472897069</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4147597025063179</v>
+        <v>0.3986224752328589</v>
       </c>
       <c r="H45" t="n">
-        <v>4.005705547889966</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I45" t="n">
-        <v>14.28010379243244</v>
+        <v>13.72450188849975</v>
       </c>
       <c r="J45" t="n">
-        <v>39.18569627933595</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K45" t="n">
-        <v>66.97459634725925</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L45" t="n">
-        <v>90.0556099674354</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M45" t="n">
-        <v>80.9850131770787</v>
+        <v>95.09358820050386</v>
       </c>
       <c r="N45" t="n">
-        <v>98.59902074434413</v>
+        <v>66.33398812649104</v>
       </c>
       <c r="O45" t="n">
-        <v>98.68188413096591</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P45" t="n">
-        <v>79.20091196368452</v>
+        <v>76.11940932757989</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.94371220063105</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R45" t="n">
-        <v>25.75148398543613</v>
+        <v>24.74956034822962</v>
       </c>
       <c r="S45" t="n">
-        <v>7.703979561904628</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T45" t="n">
-        <v>1.671772660540816</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0272868225333104</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3477206018998897</v>
+        <v>0.3341916926384192</v>
       </c>
       <c r="H46" t="n">
-        <v>3.091552260528113</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I46" t="n">
-        <v>10.45690682804396</v>
+        <v>10.05005562952628</v>
       </c>
       <c r="J46" t="n">
-        <v>24.5838465543222</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K46" t="n">
-        <v>40.39881174800536</v>
+        <v>38.82699847199088</v>
       </c>
       <c r="L46" t="n">
-        <v>51.69657021337089</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M46" t="n">
-        <v>54.50678489599817</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N46" t="n">
-        <v>53.21073537982589</v>
+        <v>51.14044329256831</v>
       </c>
       <c r="O46" t="n">
-        <v>49.14872653035898</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P46" t="n">
-        <v>42.05522625160119</v>
+        <v>40.41896617146843</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.11685876454441</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R46" t="n">
-        <v>15.6347826999714</v>
+        <v>15.02647374354201</v>
       </c>
       <c r="S46" t="n">
-        <v>6.059821762200803</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T46" t="n">
-        <v>1.485715299026801</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01896657828544855</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M11" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N11" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O11" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="M12" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N12" t="n">
-        <v>8.758581472967848</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O12" t="n">
-        <v>8.404699393251976</v>
+        <v>15.044727916295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>6.48094395269159</v>
       </c>
       <c r="M14" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N14" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O14" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="M15" t="n">
-        <v>15.67819014434952</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N15" t="n">
-        <v>3.287497588501875</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O15" t="n">
-        <v>15.67819014434952</v>
+        <v>15.044727916295</v>
       </c>
       <c r="P15" t="n">
-        <v>11.75723032779312</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7893930211541544</v>
+        <v>0.789393021154126</v>
       </c>
       <c r="L17" t="n">
-        <v>16.07548715116809</v>
+        <v>16.07548715116806</v>
       </c>
       <c r="M17" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="N17" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="O17" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="P17" t="n">
-        <v>8.009903514937164</v>
+        <v>8.009903514937122</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>5.252938115933851</v>
+        <v>5.25293811593383</v>
       </c>
       <c r="L18" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="M18" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="N18" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="O18" t="n">
-        <v>1.652745191884303</v>
+        <v>19.6218455713255</v>
       </c>
       <c r="P18" t="n">
-        <v>17.96910037944122</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7893930211541544</v>
+        <v>0.7893930211540976</v>
       </c>
       <c r="L20" t="n">
-        <v>16.07548715116809</v>
+        <v>16.07548715116803</v>
       </c>
       <c r="M20" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="N20" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="O20" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040706</v>
       </c>
       <c r="P20" t="n">
-        <v>8.009903514937164</v>
+        <v>8.009903514937108</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.252938115933851</v>
+        <v>5.252938115933816</v>
       </c>
       <c r="L21" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="M21" t="n">
-        <v>25.92214300040712</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="N21" t="n">
-        <v>1.652745191884303</v>
+        <v>25.92214300040708</v>
       </c>
       <c r="O21" t="n">
-        <v>25.92214300040712</v>
+        <v>19.6218455713255</v>
       </c>
       <c r="P21" t="n">
-        <v>17.96910037944122</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.633336333898967</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L23" t="n">
-        <v>22.08482716139561</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M23" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N23" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O23" t="n">
-        <v>32.33822706896039</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P23" t="n">
-        <v>13.48588282609619</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.543005244543245</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L24" t="n">
-        <v>6.048545566834847</v>
+        <v>30.4372552961803</v>
       </c>
       <c r="M24" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N24" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O24" t="n">
-        <v>37.09094825419692</v>
+        <v>34.56201284962765</v>
       </c>
       <c r="P24" t="n">
-        <v>21.85977432477614</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.633336333898967</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L26" t="n">
-        <v>22.08482716139561</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M26" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="N26" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O26" t="n">
-        <v>32.33822706896039</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P26" t="n">
-        <v>13.48588282609619</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.543005244543245</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L27" t="n">
-        <v>30.43725529618027</v>
+        <v>30.43725529618028</v>
       </c>
       <c r="M27" t="n">
-        <v>35.00036905751713</v>
+        <v>35.00036905751715</v>
       </c>
       <c r="N27" t="n">
-        <v>37.52930446208642</v>
+        <v>37.52930446208644</v>
       </c>
       <c r="O27" t="n">
-        <v>37.09094825419692</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.633336333898967</v>
+        <v>5.633336333898981</v>
       </c>
       <c r="L29" t="n">
-        <v>22.08482716139561</v>
+        <v>22.08482716139562</v>
       </c>
       <c r="M29" t="n">
+        <v>37.52930446208644</v>
+      </c>
+      <c r="N29" t="n">
         <v>37.52930446208642</v>
       </c>
-      <c r="N29" t="n">
-        <v>37.52930446208643</v>
-      </c>
       <c r="O29" t="n">
-        <v>32.33822706896039</v>
+        <v>32.33822706896041</v>
       </c>
       <c r="P29" t="n">
-        <v>13.48588282609619</v>
+        <v>13.4858828260962</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.543005244543245</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>30.43725529618027</v>
+        <v>14.59155081137808</v>
       </c>
       <c r="M30" t="n">
-        <v>37.52930446208643</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N30" t="n">
-        <v>13.14059473274104</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O30" t="n">
-        <v>37.09094825419692</v>
+        <v>37.09094825419694</v>
       </c>
       <c r="P30" t="n">
-        <v>21.85977432477614</v>
+        <v>21.85977432477615</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.633336333898953</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L32" t="n">
-        <v>22.08482716139558</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M32" t="n">
         <v>37.52930446208642</v>
       </c>
       <c r="N32" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O32" t="n">
-        <v>32.33822706896036</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P32" t="n">
-        <v>13.48588282609617</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>8.543005244543231</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L33" t="n">
-        <v>30.43725529618025</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M33" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N33" t="n">
-        <v>13.140594732741</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O33" t="n">
-        <v>37.09094825419691</v>
+        <v>34.56201284962765</v>
       </c>
       <c r="P33" t="n">
-        <v>21.85977432477613</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.633336333898953</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L35" t="n">
-        <v>22.08482716139558</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M35" t="n">
-        <v>37.52930446208642</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="N35" t="n">
-        <v>37.52930446208642</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="O35" t="n">
-        <v>32.33822706896036</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P35" t="n">
-        <v>13.48588282609617</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.543005244543231</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L36" t="n">
-        <v>30.43725529618025</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M36" t="n">
-        <v>37.52930446208642</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="N36" t="n">
-        <v>37.52930446208642</v>
+        <v>37.5293044620864</v>
       </c>
       <c r="O36" t="n">
-        <v>12.70223852485157</v>
+        <v>34.56201284962761</v>
       </c>
       <c r="P36" t="n">
-        <v>21.85977432477613</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.633336333898953</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L38" t="n">
-        <v>22.08482716139558</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M38" t="n">
-        <v>37.52930446208637</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N38" t="n">
-        <v>37.52930446208637</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="O38" t="n">
-        <v>32.33822706896036</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P38" t="n">
-        <v>13.48588282609617</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L39" t="n">
-        <v>30.43725529618025</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M39" t="n">
-        <v>21.68359997728416</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="N39" t="n">
-        <v>37.52930446208637</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="O39" t="n">
-        <v>37.09094825419691</v>
+        <v>12.70223852485153</v>
       </c>
       <c r="P39" t="n">
-        <v>21.85977432477613</v>
+        <v>21.85977432477614</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.633336333898953</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L41" t="n">
-        <v>22.08482716139558</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M41" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N41" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O41" t="n">
-        <v>32.33822706896036</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P41" t="n">
-        <v>13.48588282609617</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.543005244543231</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L42" t="n">
-        <v>30.43725529618025</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M42" t="n">
-        <v>37.52930446208639</v>
+        <v>35.00036905751713</v>
       </c>
       <c r="N42" t="n">
-        <v>13.140594732741</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O42" t="n">
-        <v>37.09094825419691</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P42" t="n">
-        <v>21.85977432477613</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>9.469850083724296</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L44" t="n">
-        <v>26.84436171580583</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M44" t="n">
-        <v>42.82520371799684</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N44" t="n">
-        <v>45.40562735059413</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="O44" t="n">
-        <v>37.41991220847775</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P44" t="n">
-        <v>17.8229835237334</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>11.14881356264386</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L45" t="n">
-        <v>33.94108615658635</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M45" t="n">
-        <v>23.42072943866128</v>
+        <v>37.52930446208643</v>
       </c>
       <c r="N45" t="n">
-        <v>45.40562735059413</v>
+        <v>13.14059473274104</v>
       </c>
       <c r="O45" t="n">
-        <v>40.93040513096592</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P45" t="n">
-        <v>24.94127696088077</v>
+        <v>21.85977432477614</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.498089871406449</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
